--- a/teaching/traditional_assets/database/data/austria/austria_chemical_basic.xlsx
+++ b/teaching/traditional_assets/database/data/austria/austria_chemical_basic.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="earnings_debt" sheetId="1" r:id="rId1"/>
+    <sheet name="cost_capital" sheetId="2" r:id="rId2"/>
+    <sheet name="wbag_lnz" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -591,121 +593,121 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0313</v>
+        <v>-0.026</v>
       </c>
       <c r="E2">
-        <v>0.695</v>
+        <v>-0.364</v>
       </c>
       <c r="F2">
-        <v>0.005659999999999999</v>
+        <v>-0.09960000000000001</v>
       </c>
       <c r="G2">
-        <v>0.2043483672876644</v>
+        <v>0.1957646140333756</v>
       </c>
       <c r="H2">
-        <v>0.184971577942824</v>
+        <v>0.1652678832829121</v>
       </c>
       <c r="I2">
-        <v>0.0991450943097722</v>
+        <v>0.01951790768029667</v>
       </c>
       <c r="J2">
-        <v>0.07579486013413107</v>
+        <v>0.009758953840148335</v>
       </c>
       <c r="K2">
-        <v>143.7</v>
+        <v>3.41</v>
       </c>
       <c r="L2">
-        <v>0.05962408198829924</v>
+        <v>0.001663901629745291</v>
       </c>
       <c r="M2">
-        <v>87.09999999999999</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.03532178920475283</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.6061238691718859</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>87.09999999999999</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.03532178920475283</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.6061238691718859</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
       <c r="U2">
-        <v>268.2</v>
+        <v>651.6</v>
       </c>
       <c r="V2">
-        <v>0.1087635346121092</v>
+        <v>0.2423115540515414</v>
       </c>
       <c r="W2">
-        <v>0.08325608342989571</v>
+        <v>0.002082061301746245</v>
       </c>
       <c r="X2">
-        <v>0.08066773196174917</v>
+        <v>0.07842108033533861</v>
       </c>
       <c r="Y2">
-        <v>0.002588351468146538</v>
+        <v>-0.07633901903359236</v>
       </c>
       <c r="Z2">
-        <v>1.26560805380903</v>
+        <v>0.9950958970623939</v>
       </c>
       <c r="AA2">
-        <v>0.09592658542308527</v>
+        <v>0.009711094925952901</v>
       </c>
       <c r="AB2">
-        <v>0.06786972374881324</v>
+        <v>0.05526523520932596</v>
       </c>
       <c r="AC2">
-        <v>0.02805686167427203</v>
+        <v>-0.04555414028337305</v>
       </c>
       <c r="AD2">
-        <v>689.9</v>
+        <v>1628.6</v>
       </c>
       <c r="AE2">
-        <v>23.60204102009024</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>713.5020410200902</v>
+        <v>1628.6</v>
       </c>
       <c r="AG2">
-        <v>445.3020410200903</v>
+        <v>976.9999999999999</v>
       </c>
       <c r="AH2">
-        <v>0.2244139092240023</v>
+        <v>0.3771915603214674</v>
       </c>
       <c r="AI2">
-        <v>0.2994005412855401</v>
+        <v>0.5036180345104829</v>
       </c>
       <c r="AJ2">
-        <v>0.1529615721429131</v>
+        <v>0.2664957311584517</v>
       </c>
       <c r="AK2">
-        <v>0.2105544523496255</v>
+        <v>0.3783595383781271</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>25.7</v>
       </c>
       <c r="AM2">
-        <v>-1.37</v>
+        <v>14.2</v>
       </c>
       <c r="AN2">
-        <v>1.689813113870723</v>
+        <v>7.532839962997225</v>
+      </c>
+      <c r="AO2">
+        <v>1.556420233463035</v>
       </c>
       <c r="AP2">
-        <v>1.090704781198938</v>
+        <v>4.518963922294172</v>
       </c>
       <c r="AQ2">
-        <v>-170.7299270072993</v>
+        <v>2.816901408450704</v>
       </c>
     </row>
     <row r="3">
@@ -725,121 +727,8839 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.0313</v>
+        <v>-0.026</v>
       </c>
       <c r="E3">
-        <v>0.695</v>
+        <v>-0.364</v>
       </c>
       <c r="F3">
-        <v>0.005659999999999999</v>
+        <v>-0.09960000000000001</v>
       </c>
       <c r="G3">
-        <v>0.2043483672876644</v>
+        <v>0.1957646140333756</v>
       </c>
       <c r="H3">
-        <v>0.184971577942824</v>
+        <v>0.1652678832829121</v>
       </c>
       <c r="I3">
-        <v>0.0991450943097722</v>
+        <v>0.01951790768029667</v>
       </c>
       <c r="J3">
-        <v>0.07579486013413107</v>
+        <v>0.009758953840148335</v>
       </c>
       <c r="K3">
-        <v>143.7</v>
+        <v>3.41</v>
       </c>
       <c r="L3">
-        <v>0.05962408198829924</v>
+        <v>0.001663901629745291</v>
       </c>
       <c r="M3">
-        <v>87.09999999999999</v>
+        <v>-0</v>
       </c>
       <c r="N3">
-        <v>0.03532178920475283</v>
+        <v>-0</v>
       </c>
       <c r="O3">
-        <v>0.6061238691718859</v>
+        <v>-0</v>
       </c>
       <c r="P3">
-        <v>87.09999999999999</v>
+        <v>-0</v>
       </c>
       <c r="Q3">
-        <v>0.03532178920475283</v>
+        <v>-0</v>
       </c>
       <c r="R3">
-        <v>0.6061238691718859</v>
+        <v>-0</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
+      <c r="U3">
+        <v>651.6</v>
+      </c>
+      <c r="V3">
+        <v>0.2423115540515414</v>
+      </c>
+      <c r="W3">
+        <v>0.002082061301746245</v>
+      </c>
+      <c r="X3">
+        <v>0.07842108033533861</v>
+      </c>
+      <c r="Y3">
+        <v>-0.07633901903359236</v>
+      </c>
+      <c r="Z3">
+        <v>0.9950958970623939</v>
+      </c>
+      <c r="AA3">
+        <v>0.009711094925952901</v>
+      </c>
+      <c r="AB3">
+        <v>0.05526523520932596</v>
+      </c>
+      <c r="AC3">
+        <v>-0.04555414028337305</v>
+      </c>
+      <c r="AD3">
+        <v>1628.6</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>1628.6</v>
+      </c>
+      <c r="AG3">
+        <v>976.9999999999999</v>
+      </c>
+      <c r="AH3">
+        <v>0.3771915603214674</v>
+      </c>
+      <c r="AI3">
+        <v>0.5036180345104829</v>
+      </c>
+      <c r="AJ3">
+        <v>0.2664957311584517</v>
+      </c>
+      <c r="AK3">
+        <v>0.3783595383781271</v>
+      </c>
+      <c r="AL3">
+        <v>25.7</v>
+      </c>
+      <c r="AM3">
+        <v>14.2</v>
+      </c>
+      <c r="AN3">
+        <v>7.532839962997225</v>
+      </c>
+      <c r="AO3">
+        <v>1.556420233463035</v>
+      </c>
+      <c r="AP3">
+        <v>4.518963922294172</v>
+      </c>
+      <c r="AQ3">
+        <v>2.816901408450704</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AQ2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>company_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>exchange_ticker</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>industry_group</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_capital</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_capital</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>actual_equity_value</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_equity_value</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>actual_enterprise_value</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_enterprise_value</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_capital</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_capital</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_rating</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_rating</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_equity</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>actual_beta</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_beta</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>country_default_spread</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>risk_free</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>market_capitalization</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_risk_premium</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>marginal_tax_rate</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_max_percentage</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_method</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_ebitda</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_depreciation</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>reported_capital_spending</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_debt</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_mv_debt</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>reported_interest_expense</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>reported_bv_debt</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>reported_cash</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>flag_bankruptcy</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>flag_refinanced</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>rating_firm_type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Lenzing Aktiengesellschaft (WBAG:LNZ)</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>WBAG:LNZ</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Chemical (Basic)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="E2">
+        <v>0.377191560321467</v>
+      </c>
+      <c r="F2">
+        <v>0.03</v>
+      </c>
+      <c r="G2">
+        <v>2689.1</v>
+      </c>
+      <c r="H2">
+        <v>4087.70696338538</v>
+      </c>
+      <c r="I2">
+        <v>3666.1</v>
+      </c>
+      <c r="J2">
+        <v>3565.63796338538</v>
+      </c>
+      <c r="K2">
+        <v>1628.6</v>
+      </c>
+      <c r="L2">
+        <v>129.531</v>
+      </c>
+      <c r="M2">
+        <v>0.055265235209326</v>
+      </c>
+      <c r="N2">
+        <v>0.0565603081219485</v>
+      </c>
+      <c r="O2">
+        <v>0.0170309338901803</v>
+      </c>
+      <c r="P2">
+        <v>0.01215</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>B3/B-</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="S2">
+        <v>0.07842108033533859</v>
+      </c>
+      <c r="T2">
+        <v>0.0579338228061325</v>
+      </c>
+      <c r="U2">
+        <v>1.35413634463689</v>
+      </c>
+      <c r="V2">
+        <v>0.95277485133207</v>
+      </c>
+      <c r="W2">
+        <v>14.05831541732086</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="AA2">
+        <v>2689.1</v>
+      </c>
+      <c r="AB2">
+        <v>0.05104440229308931</v>
+      </c>
+      <c r="AC2">
+        <v>0.02270791185357374</v>
+      </c>
+      <c r="AD2">
+        <v>0.25</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2">
+        <v>216.2</v>
+      </c>
+      <c r="AH2">
+        <v>186.7</v>
+      </c>
+      <c r="AI2">
+        <v>627.2</v>
+      </c>
+      <c r="AJ2">
+        <v>1628.6</v>
+      </c>
+      <c r="AK2">
+        <v>1628.6</v>
+      </c>
+      <c r="AL2">
+        <v>25.7</v>
+      </c>
+      <c r="AM2">
+        <v>1628.6</v>
+      </c>
+      <c r="AN2">
+        <v>651.6</v>
+      </c>
+      <c r="AO2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Z101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>debt_capital</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>cost_capital</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>equity_value</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>enterprise_value</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>debt_issued</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>debt</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>cash</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>marketcap</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>drop_ebitda</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ebitda</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>depreciation</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>ebit</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>interest_expense</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>taxable_income</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>taxes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>net_income</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>operating_cash_flow</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>debt_equity</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>tax_rate</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>debt_rating</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.05683129281808418</v>
+      </c>
+      <c r="C2">
+        <v>4196.909601526258</v>
+      </c>
+      <c r="D2">
+        <v>3545.309601526258</v>
+      </c>
+      <c r="E2">
+        <v>-1628.6</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>651.6</v>
+      </c>
+      <c r="H2">
+        <v>2689.1</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>216.2</v>
+      </c>
+      <c r="K2">
+        <v>186.7</v>
+      </c>
+      <c r="L2">
+        <v>29.5</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>29.5</v>
+      </c>
+      <c r="O2">
+        <v>7.375</v>
+      </c>
+      <c r="P2">
+        <v>22.125</v>
+      </c>
+      <c r="Q2">
+        <v>208.825</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.05683129281808418</v>
+      </c>
+      <c r="T2">
+        <v>0.931175421453005</v>
+      </c>
+      <c r="U2">
+        <v>0.0162</v>
+      </c>
+      <c r="V2">
+        <v>0.25</v>
+      </c>
+      <c r="W2">
+        <v>0.01215</v>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y2">
+        <v>10000000</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>0.01</v>
+      </c>
+      <c r="B3">
+        <v>0.05674096458603896</v>
+      </c>
+      <c r="C3">
+        <v>4160.482918497111</v>
+      </c>
+      <c r="D3">
+        <v>3552.059918497111</v>
+      </c>
+      <c r="E3">
+        <v>-1585.423</v>
+      </c>
+      <c r="F3">
+        <v>43.177</v>
+      </c>
+      <c r="G3">
+        <v>651.6</v>
+      </c>
+      <c r="H3">
+        <v>2689.1</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>216.2</v>
+      </c>
+      <c r="K3">
+        <v>186.7</v>
+      </c>
+      <c r="L3">
+        <v>29.5</v>
+      </c>
+      <c r="M3">
+        <v>0.6994674</v>
+      </c>
+      <c r="N3">
+        <v>28.8005326</v>
+      </c>
+      <c r="O3">
+        <v>7.20013315</v>
+      </c>
+      <c r="P3">
+        <v>21.60039945</v>
+      </c>
+      <c r="Q3">
+        <v>208.30039945</v>
+      </c>
+      <c r="R3">
+        <v>0.0101010101010101</v>
+      </c>
+      <c r="S3">
+        <v>0.05719137836973633</v>
+      </c>
       <c r="T3">
-        <v>0</v>
+        <v>0.9382297807064369</v>
       </c>
       <c r="U3">
-        <v>268.2</v>
+        <v>0.0162</v>
       </c>
       <c r="V3">
-        <v>0.1087635346121092</v>
+        <v>0.25</v>
       </c>
       <c r="W3">
-        <v>0.08325608342989571</v>
-      </c>
-      <c r="X3">
-        <v>0.08066773196174917</v>
+        <v>0.01215</v>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
       </c>
       <c r="Y3">
-        <v>0.002588351468146538</v>
+        <v>42.17494625196257</v>
       </c>
       <c r="Z3">
-        <v>1.26560805380903</v>
-      </c>
-      <c r="AA3">
-        <v>0.09592658542308527</v>
-      </c>
-      <c r="AB3">
-        <v>0.06786972374881324</v>
-      </c>
-      <c r="AC3">
-        <v>0.02805686167427203</v>
-      </c>
-      <c r="AD3">
-        <v>689.9</v>
-      </c>
-      <c r="AE3">
-        <v>23.60204102009024</v>
-      </c>
-      <c r="AF3">
-        <v>713.5020410200902</v>
-      </c>
-      <c r="AG3">
-        <v>445.3020410200903</v>
-      </c>
-      <c r="AH3">
-        <v>0.2244139092240023</v>
-      </c>
-      <c r="AI3">
-        <v>0.2994005412855401</v>
-      </c>
-      <c r="AJ3">
-        <v>0.1529615721429131</v>
-      </c>
-      <c r="AK3">
-        <v>0.2105544523496255</v>
-      </c>
-      <c r="AL3">
-        <v>0</v>
-      </c>
-      <c r="AM3">
-        <v>-1.37</v>
-      </c>
-      <c r="AN3">
-        <v>1.689813113870723</v>
-      </c>
-      <c r="AP3">
-        <v>1.090704781198938</v>
-      </c>
-      <c r="AQ3">
-        <v>-170.7299270072993</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>0.02</v>
+      </c>
+      <c r="B4">
+        <v>0.05665063635399376</v>
+      </c>
+      <c r="C4">
+        <v>4124.081989892599</v>
+      </c>
+      <c r="D4">
+        <v>3558.8359898926</v>
+      </c>
+      <c r="E4">
+        <v>-1542.246</v>
+      </c>
+      <c r="F4">
+        <v>86.354</v>
+      </c>
+      <c r="G4">
+        <v>651.6</v>
+      </c>
+      <c r="H4">
+        <v>2689.1</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>216.2</v>
+      </c>
+      <c r="K4">
+        <v>186.7</v>
+      </c>
+      <c r="L4">
+        <v>29.5</v>
+      </c>
+      <c r="M4">
+        <v>1.3989348</v>
+      </c>
+      <c r="N4">
+        <v>28.1010652</v>
+      </c>
+      <c r="O4">
+        <v>7.0252663</v>
+      </c>
+      <c r="P4">
+        <v>21.0757989</v>
+      </c>
+      <c r="Q4">
+        <v>207.7757989</v>
+      </c>
+      <c r="R4">
+        <v>0.02040816326530612</v>
+      </c>
+      <c r="S4">
+        <v>0.05755881260611607</v>
+      </c>
+      <c r="T4">
+        <v>0.945428106475245</v>
+      </c>
+      <c r="U4">
+        <v>0.0162</v>
+      </c>
+      <c r="V4">
+        <v>0.25</v>
+      </c>
+      <c r="W4">
+        <v>0.01215</v>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y4">
+        <v>21.08747312598128</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>0.03</v>
+      </c>
+      <c r="B5">
+        <v>0.05656030812194852</v>
+      </c>
+      <c r="C5">
+        <v>4087.706963385376</v>
+      </c>
+      <c r="D5">
+        <v>3565.637963385376</v>
+      </c>
+      <c r="E5">
+        <v>-1499.069</v>
+      </c>
+      <c r="F5">
+        <v>129.531</v>
+      </c>
+      <c r="G5">
+        <v>651.6</v>
+      </c>
+      <c r="H5">
+        <v>2689.1</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>216.2</v>
+      </c>
+      <c r="K5">
+        <v>186.7</v>
+      </c>
+      <c r="L5">
+        <v>29.5</v>
+      </c>
+      <c r="M5">
+        <v>2.098402199999999</v>
+      </c>
+      <c r="N5">
+        <v>27.4015978</v>
+      </c>
+      <c r="O5">
+        <v>6.85039945</v>
+      </c>
+      <c r="P5">
+        <v>20.55119835</v>
+      </c>
+      <c r="Q5">
+        <v>207.25119835</v>
+      </c>
+      <c r="R5">
+        <v>0.03092783505154639</v>
+      </c>
+      <c r="S5">
+        <v>0.0579338228061325</v>
+      </c>
+      <c r="T5">
+        <v>0.9527748513320695</v>
+      </c>
+      <c r="U5">
+        <v>0.0162</v>
+      </c>
+      <c r="V5">
+        <v>0.25</v>
+      </c>
+      <c r="W5">
+        <v>0.01215</v>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y5">
+        <v>14.05831541732086</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>0.04</v>
+      </c>
+      <c r="B6">
+        <v>0.05658397988990334</v>
+      </c>
+      <c r="C6">
+        <v>4042.744898873534</v>
+      </c>
+      <c r="D6">
+        <v>3563.852898873533</v>
+      </c>
+      <c r="E6">
+        <v>-1455.892</v>
+      </c>
+      <c r="F6">
+        <v>172.708</v>
+      </c>
+      <c r="G6">
+        <v>651.6</v>
+      </c>
+      <c r="H6">
+        <v>2689.1</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>216.2</v>
+      </c>
+      <c r="K6">
+        <v>186.7</v>
+      </c>
+      <c r="L6">
+        <v>29.5</v>
+      </c>
+      <c r="M6">
+        <v>3.454159999999999</v>
+      </c>
+      <c r="N6">
+        <v>26.04584</v>
+      </c>
+      <c r="O6">
+        <v>6.51146</v>
+      </c>
+      <c r="P6">
+        <v>19.53438</v>
+      </c>
+      <c r="Q6">
+        <v>206.23438</v>
+      </c>
+      <c r="R6">
+        <v>0.04166666666666667</v>
+      </c>
+      <c r="S6">
+        <v>0.05831664571864931</v>
+      </c>
+      <c r="T6">
+        <v>0.9602746533734114</v>
+      </c>
+      <c r="U6">
+        <v>0.02</v>
+      </c>
+      <c r="V6">
+        <v>0.25</v>
+      </c>
+      <c r="W6">
+        <v>0.015</v>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y6">
+        <v>8.540426616022421</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>0.05</v>
+      </c>
+      <c r="B7">
+        <v>0.05656340165785812</v>
+      </c>
+      <c r="C7">
+        <v>4001.119581345713</v>
+      </c>
+      <c r="D7">
+        <v>3565.404581345712</v>
+      </c>
+      <c r="E7">
+        <v>-1412.715</v>
+      </c>
+      <c r="F7">
+        <v>215.885</v>
+      </c>
+      <c r="G7">
+        <v>651.6</v>
+      </c>
+      <c r="H7">
+        <v>2689.1</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>216.2</v>
+      </c>
+      <c r="K7">
+        <v>186.7</v>
+      </c>
+      <c r="L7">
+        <v>29.5</v>
+      </c>
+      <c r="M7">
+        <v>4.5551735</v>
+      </c>
+      <c r="N7">
+        <v>24.9448265</v>
+      </c>
+      <c r="O7">
+        <v>6.236206625</v>
+      </c>
+      <c r="P7">
+        <v>18.708619875</v>
+      </c>
+      <c r="Q7">
+        <v>205.408619875</v>
+      </c>
+      <c r="R7">
+        <v>0.05263157894736843</v>
+      </c>
+      <c r="S7">
+        <v>0.05870752806090329</v>
+      </c>
+      <c r="T7">
+        <v>0.9679323459840448</v>
+      </c>
+      <c r="U7">
+        <v>0.0211</v>
+      </c>
+      <c r="V7">
+        <v>0.25</v>
+      </c>
+      <c r="W7">
+        <v>0.015825</v>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y7">
+        <v>6.476152884187617</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>0.06</v>
+      </c>
+      <c r="B8">
+        <v>0.0565773234258129</v>
+      </c>
+      <c r="C8">
+        <v>3956.892675563201</v>
+      </c>
+      <c r="D8">
+        <v>3564.354675563201</v>
+      </c>
+      <c r="E8">
+        <v>-1369.538</v>
+      </c>
+      <c r="F8">
+        <v>259.062</v>
+      </c>
+      <c r="G8">
+        <v>651.6</v>
+      </c>
+      <c r="H8">
+        <v>2689.1</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>216.2</v>
+      </c>
+      <c r="K8">
+        <v>186.7</v>
+      </c>
+      <c r="L8">
+        <v>29.5</v>
+      </c>
+      <c r="M8">
+        <v>5.854801199999999</v>
+      </c>
+      <c r="N8">
+        <v>23.6451988</v>
+      </c>
+      <c r="O8">
+        <v>5.911299700000001</v>
+      </c>
+      <c r="P8">
+        <v>17.7338991</v>
+      </c>
+      <c r="Q8">
+        <v>204.4338991</v>
+      </c>
+      <c r="R8">
+        <v>0.06382978723404255</v>
+      </c>
+      <c r="S8">
+        <v>0.05910672704873714</v>
+      </c>
+      <c r="T8">
+        <v>0.9757529682246914</v>
+      </c>
+      <c r="U8">
+        <v>0.0226</v>
+      </c>
+      <c r="V8">
+        <v>0.25</v>
+      </c>
+      <c r="W8">
+        <v>0.01695</v>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y8">
+        <v>5.038599773464555</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="B9">
+        <v>0.06135736801180167</v>
+      </c>
+      <c r="C9">
+        <v>3586.427245122249</v>
+      </c>
+      <c r="D9">
+        <v>3237.066245122249</v>
+      </c>
+      <c r="E9">
+        <v>-1326.361</v>
+      </c>
+      <c r="F9">
+        <v>302.239</v>
+      </c>
+      <c r="G9">
+        <v>651.6</v>
+      </c>
+      <c r="H9">
+        <v>2689.1</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>216.2</v>
+      </c>
+      <c r="K9">
+        <v>186.7</v>
+      </c>
+      <c r="L9">
+        <v>29.5</v>
+      </c>
+      <c r="M9">
+        <v>32.944051</v>
+      </c>
+      <c r="N9">
+        <v>-3.444051000000002</v>
+      </c>
+      <c r="O9">
+        <v>-0.8610127500000004</v>
+      </c>
+      <c r="P9">
+        <v>-2.583038250000001</v>
+      </c>
+      <c r="Q9">
+        <v>184.11696175</v>
+      </c>
+      <c r="R9">
+        <v>0.07526881720430109</v>
+      </c>
+      <c r="S9">
+        <v>0.05960801433871629</v>
+      </c>
+      <c r="T9">
+        <v>0.9855735806221262</v>
+      </c>
+      <c r="U9">
+        <v>0.109</v>
+      </c>
+      <c r="V9">
+        <v>0.2238643936047816</v>
+      </c>
+      <c r="W9">
+        <v>0.0845987810970788</v>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y9">
+        <v>0.8954575744191264</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>0.08</v>
+      </c>
+      <c r="B10">
+        <v>0.06501612401659507</v>
+      </c>
+      <c r="C10">
+        <v>3330.679184746128</v>
+      </c>
+      <c r="D10">
+        <v>3024.495184746128</v>
+      </c>
+      <c r="E10">
+        <v>-1283.184</v>
+      </c>
+      <c r="F10">
+        <v>345.416</v>
+      </c>
+      <c r="G10">
+        <v>651.6</v>
+      </c>
+      <c r="H10">
+        <v>2689.1</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>216.2</v>
+      </c>
+      <c r="K10">
+        <v>186.7</v>
+      </c>
+      <c r="L10">
+        <v>29.5</v>
+      </c>
+      <c r="M10">
+        <v>48.4273232</v>
+      </c>
+      <c r="N10">
+        <v>-18.9273232</v>
+      </c>
+      <c r="O10">
+        <v>-4.731830799999999</v>
+      </c>
+      <c r="P10">
+        <v>-14.1954924</v>
+      </c>
+      <c r="Q10">
+        <v>172.5045076</v>
+      </c>
+      <c r="R10">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="S10">
+        <v>0.06033501015195603</v>
+      </c>
+      <c r="T10">
+        <v>0.9998160005659513</v>
+      </c>
+      <c r="U10">
+        <v>0.1402</v>
+      </c>
+      <c r="V10">
+        <v>0.1522900609133812</v>
+      </c>
+      <c r="W10">
+        <v>0.1188489334599439</v>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y10">
+        <v>0.6091602436535249</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>0.09</v>
+      </c>
+      <c r="B11">
+        <v>0.06632512401659506</v>
+      </c>
+      <c r="C11">
+        <v>3218.075519480472</v>
+      </c>
+      <c r="D11">
+        <v>2955.068519480472</v>
+      </c>
+      <c r="E11">
+        <v>-1240.007</v>
+      </c>
+      <c r="F11">
+        <v>388.593</v>
+      </c>
+      <c r="G11">
+        <v>651.6</v>
+      </c>
+      <c r="H11">
+        <v>2689.1</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>216.2</v>
+      </c>
+      <c r="K11">
+        <v>186.7</v>
+      </c>
+      <c r="L11">
+        <v>29.5</v>
+      </c>
+      <c r="M11">
+        <v>54.48073859999999</v>
+      </c>
+      <c r="N11">
+        <v>-24.98073859999999</v>
+      </c>
+      <c r="O11">
+        <v>-6.245184649999997</v>
+      </c>
+      <c r="P11">
+        <v>-18.73555394999999</v>
+      </c>
+      <c r="Q11">
+        <v>167.96444605</v>
+      </c>
+      <c r="R11">
+        <v>0.0989010989010989</v>
+      </c>
+      <c r="S11">
+        <v>0.06089583443934016</v>
+      </c>
+      <c r="T11">
+        <v>1.01080298958316</v>
+      </c>
+      <c r="U11">
+        <v>0.1402</v>
+      </c>
+      <c r="V11">
+        <v>0.1353689430341167</v>
+      </c>
+      <c r="W11">
+        <v>0.1212212741866168</v>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y11">
+        <v>0.5414757721364667</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>0.1</v>
+      </c>
+      <c r="B12">
+        <v>0.07212125047987966</v>
+      </c>
+      <c r="C12">
+        <v>2902.252707502155</v>
+      </c>
+      <c r="D12">
+        <v>2682.422707502155</v>
+      </c>
+      <c r="E12">
+        <v>-1196.83</v>
+      </c>
+      <c r="F12">
+        <v>431.77</v>
+      </c>
+      <c r="G12">
+        <v>651.6</v>
+      </c>
+      <c r="H12">
+        <v>2689.1</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>216.2</v>
+      </c>
+      <c r="K12">
+        <v>186.7</v>
+      </c>
+      <c r="L12">
+        <v>29.5</v>
+      </c>
+      <c r="M12">
+        <v>79.316149</v>
+      </c>
+      <c r="N12">
+        <v>-49.816149</v>
+      </c>
+      <c r="O12">
+        <v>-12.45403725</v>
+      </c>
+      <c r="P12">
+        <v>-37.36211175</v>
+      </c>
+      <c r="Q12">
+        <v>149.33788825</v>
+      </c>
+      <c r="R12">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="S12">
+        <v>0.06162148422564905</v>
+      </c>
+      <c r="T12">
+        <v>1.025019039800426</v>
+      </c>
+      <c r="U12">
+        <v>0.1837</v>
+      </c>
+      <c r="V12">
+        <v>0.09298232570519782</v>
+      </c>
+      <c r="W12">
+        <v>0.1666191467679552</v>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y12">
+        <v>0.3719293028207913</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>0.11</v>
+      </c>
+      <c r="B13">
+        <v>0.07386525047987967</v>
+      </c>
+      <c r="C13">
+        <v>2786.619623662728</v>
+      </c>
+      <c r="D13">
+        <v>2609.966623662728</v>
+      </c>
+      <c r="E13">
+        <v>-1153.653</v>
+      </c>
+      <c r="F13">
+        <v>474.947</v>
+      </c>
+      <c r="G13">
+        <v>651.6</v>
+      </c>
+      <c r="H13">
+        <v>2689.1</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>216.2</v>
+      </c>
+      <c r="K13">
+        <v>186.7</v>
+      </c>
+      <c r="L13">
+        <v>29.5</v>
+      </c>
+      <c r="M13">
+        <v>87.2477639</v>
+      </c>
+      <c r="N13">
+        <v>-57.7477639</v>
+      </c>
+      <c r="O13">
+        <v>-14.436940975</v>
+      </c>
+      <c r="P13">
+        <v>-43.310822925</v>
+      </c>
+      <c r="Q13">
+        <v>143.389177075</v>
+      </c>
+      <c r="R13">
+        <v>0.1235955056179775</v>
+      </c>
+      <c r="S13">
+        <v>0.06220936607088107</v>
+      </c>
+      <c r="T13">
+        <v>1.036536107663352</v>
+      </c>
+      <c r="U13">
+        <v>0.1837</v>
+      </c>
+      <c r="V13">
+        <v>0.08452938700472529</v>
+      </c>
+      <c r="W13">
+        <v>0.168171951607232</v>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y13">
+        <v>0.3381175480189011</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>0.12</v>
+      </c>
+      <c r="B14">
+        <v>0.07560925047987965</v>
+      </c>
+      <c r="C14">
+        <v>2674.797875626421</v>
+      </c>
+      <c r="D14">
+        <v>2541.32187562642</v>
+      </c>
+      <c r="E14">
+        <v>-1110.476</v>
+      </c>
+      <c r="F14">
+        <v>518.1239999999999</v>
+      </c>
+      <c r="G14">
+        <v>651.6</v>
+      </c>
+      <c r="H14">
+        <v>2689.1</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>216.2</v>
+      </c>
+      <c r="K14">
+        <v>186.7</v>
+      </c>
+      <c r="L14">
+        <v>29.5</v>
+      </c>
+      <c r="M14">
+        <v>95.17937879999998</v>
+      </c>
+      <c r="N14">
+        <v>-65.67937879999998</v>
+      </c>
+      <c r="O14">
+        <v>-16.4198447</v>
+      </c>
+      <c r="P14">
+        <v>-49.25953409999998</v>
+      </c>
+      <c r="Q14">
+        <v>137.4404659</v>
+      </c>
+      <c r="R14">
+        <v>0.1363636363636364</v>
+      </c>
+      <c r="S14">
+        <v>0.06281060886714107</v>
+      </c>
+      <c r="T14">
+        <v>1.048314927068617</v>
+      </c>
+      <c r="U14">
+        <v>0.1837</v>
+      </c>
+      <c r="V14">
+        <v>0.07748527142099819</v>
+      </c>
+      <c r="W14">
+        <v>0.1694659556399626</v>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y14">
+        <v>0.3099410856839928</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>0.13</v>
+      </c>
+      <c r="B15">
+        <v>0.07735325047987966</v>
+      </c>
+      <c r="C15">
+        <v>2566.494444194569</v>
+      </c>
+      <c r="D15">
+        <v>2476.195444194569</v>
+      </c>
+      <c r="E15">
+        <v>-1067.299</v>
+      </c>
+      <c r="F15">
+        <v>561.301</v>
+      </c>
+      <c r="G15">
+        <v>651.6</v>
+      </c>
+      <c r="H15">
+        <v>2689.1</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>216.2</v>
+      </c>
+      <c r="K15">
+        <v>186.7</v>
+      </c>
+      <c r="L15">
+        <v>29.5</v>
+      </c>
+      <c r="M15">
+        <v>103.1109937</v>
+      </c>
+      <c r="N15">
+        <v>-73.61099370000001</v>
+      </c>
+      <c r="O15">
+        <v>-18.402748425</v>
+      </c>
+      <c r="P15">
+        <v>-55.20824527500001</v>
+      </c>
+      <c r="Q15">
+        <v>131.491754725</v>
+      </c>
+      <c r="R15">
+        <v>0.1494252873563219</v>
+      </c>
+      <c r="S15">
+        <v>0.06342567333687833</v>
+      </c>
+      <c r="T15">
+        <v>1.060364523931475</v>
+      </c>
+      <c r="U15">
+        <v>0.1837</v>
+      </c>
+      <c r="V15">
+        <v>0.07152486592707524</v>
+      </c>
+      <c r="W15">
+        <v>0.1705608821291963</v>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y15">
+        <v>0.286099463708301</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>0.14</v>
+      </c>
+      <c r="B16">
+        <v>0.07909725047987966</v>
+      </c>
+      <c r="C16">
+        <v>2461.445596450076</v>
+      </c>
+      <c r="D16">
+        <v>2414.323596450076</v>
+      </c>
+      <c r="E16">
+        <v>-1024.122</v>
+      </c>
+      <c r="F16">
+        <v>604.4780000000001</v>
+      </c>
+      <c r="G16">
+        <v>651.6</v>
+      </c>
+      <c r="H16">
+        <v>2689.1</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>216.2</v>
+      </c>
+      <c r="K16">
+        <v>186.7</v>
+      </c>
+      <c r="L16">
+        <v>29.5</v>
+      </c>
+      <c r="M16">
+        <v>111.0426086</v>
+      </c>
+      <c r="N16">
+        <v>-81.54260860000001</v>
+      </c>
+      <c r="O16">
+        <v>-20.38565215</v>
+      </c>
+      <c r="P16">
+        <v>-61.15695645000001</v>
+      </c>
+      <c r="Q16">
+        <v>125.54304355</v>
+      </c>
+      <c r="R16">
+        <v>0.1627906976744186</v>
+      </c>
+      <c r="S16">
+        <v>0.06405504163149318</v>
+      </c>
+      <c r="T16">
+        <v>1.07269434397719</v>
+      </c>
+      <c r="U16">
+        <v>0.1837</v>
+      </c>
+      <c r="V16">
+        <v>0.06641594693228414</v>
+      </c>
+      <c r="W16">
+        <v>0.1714993905485394</v>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y16">
+        <v>0.2656637877291366</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>0.15</v>
+      </c>
+      <c r="B17">
+        <v>0.08084125047987967</v>
+      </c>
+      <c r="C17">
+        <v>2359.413316119281</v>
+      </c>
+      <c r="D17">
+        <v>2355.468316119281</v>
+      </c>
+      <c r="E17">
+        <v>-980.9449999999999</v>
+      </c>
+      <c r="F17">
+        <v>647.655</v>
+      </c>
+      <c r="G17">
+        <v>651.6</v>
+      </c>
+      <c r="H17">
+        <v>2689.1</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>216.2</v>
+      </c>
+      <c r="K17">
+        <v>186.7</v>
+      </c>
+      <c r="L17">
+        <v>29.5</v>
+      </c>
+      <c r="M17">
+        <v>118.9742235</v>
+      </c>
+      <c r="N17">
+        <v>-89.47422349999999</v>
+      </c>
+      <c r="O17">
+        <v>-22.368555875</v>
+      </c>
+      <c r="P17">
+        <v>-67.105667625</v>
+      </c>
+      <c r="Q17">
+        <v>119.594332375</v>
+      </c>
+      <c r="R17">
+        <v>0.1764705882352941</v>
+      </c>
+      <c r="S17">
+        <v>0.0646992185918637</v>
+      </c>
+      <c r="T17">
+        <v>1.085314277435745</v>
+      </c>
+      <c r="U17">
+        <v>0.1837</v>
+      </c>
+      <c r="V17">
+        <v>0.06198821713679855</v>
+      </c>
+      <c r="W17">
+        <v>0.1723127645119701</v>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y17">
+        <v>0.2479528685471942</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>0.16</v>
+      </c>
+      <c r="B18">
+        <v>0.08258525047987966</v>
+      </c>
+      <c r="C18">
+        <v>2260.182243622935</v>
+      </c>
+      <c r="D18">
+        <v>2299.414243622935</v>
+      </c>
+      <c r="E18">
+        <v>-937.7679999999999</v>
+      </c>
+      <c r="F18">
+        <v>690.832</v>
+      </c>
+      <c r="G18">
+        <v>651.6</v>
+      </c>
+      <c r="H18">
+        <v>2689.1</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>216.2</v>
+      </c>
+      <c r="K18">
+        <v>186.7</v>
+      </c>
+      <c r="L18">
+        <v>29.5</v>
+      </c>
+      <c r="M18">
+        <v>126.9058384</v>
+      </c>
+      <c r="N18">
+        <v>-97.40583839999999</v>
+      </c>
+      <c r="O18">
+        <v>-24.3514596</v>
+      </c>
+      <c r="P18">
+        <v>-73.05437879999999</v>
+      </c>
+      <c r="Q18">
+        <v>113.6456212</v>
+      </c>
+      <c r="R18">
+        <v>0.1904761904761905</v>
+      </c>
+      <c r="S18">
+        <v>0.0653587330989097</v>
+      </c>
+      <c r="T18">
+        <v>1.098234685500456</v>
+      </c>
+      <c r="U18">
+        <v>0.1837</v>
+      </c>
+      <c r="V18">
+        <v>0.05811395356574864</v>
+      </c>
+      <c r="W18">
+        <v>0.173024466729972</v>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y18">
+        <v>0.2324558142629946</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>0.17</v>
+      </c>
+      <c r="B19">
+        <v>0.08432925047987966</v>
+      </c>
+      <c r="C19">
+        <v>2163.557042884828</v>
+      </c>
+      <c r="D19">
+        <v>2245.966042884828</v>
+      </c>
+      <c r="E19">
+        <v>-894.5909999999999</v>
+      </c>
+      <c r="F19">
+        <v>734.009</v>
+      </c>
+      <c r="G19">
+        <v>651.6</v>
+      </c>
+      <c r="H19">
+        <v>2689.1</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>216.2</v>
+      </c>
+      <c r="K19">
+        <v>186.7</v>
+      </c>
+      <c r="L19">
+        <v>29.5</v>
+      </c>
+      <c r="M19">
+        <v>134.8374533</v>
+      </c>
+      <c r="N19">
+        <v>-105.3374533</v>
+      </c>
+      <c r="O19">
+        <v>-26.334363325</v>
+      </c>
+      <c r="P19">
+        <v>-79.00308997499999</v>
+      </c>
+      <c r="Q19">
+        <v>107.696910025</v>
+      </c>
+      <c r="R19">
+        <v>0.2048192771084338</v>
+      </c>
+      <c r="S19">
+        <v>0.06603413952178813</v>
+      </c>
+      <c r="T19">
+        <v>1.111466428699257</v>
+      </c>
+      <c r="U19">
+        <v>0.1837</v>
+      </c>
+      <c r="V19">
+        <v>0.05469548570893989</v>
+      </c>
+      <c r="W19">
+        <v>0.1736524392752677</v>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y19">
+        <v>0.2187819428357596</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>0.18</v>
+      </c>
+      <c r="B20">
+        <v>0.08607325047987967</v>
+      </c>
+      <c r="C20">
+        <v>2069.360127037736</v>
+      </c>
+      <c r="D20">
+        <v>2194.946127037736</v>
+      </c>
+      <c r="E20">
+        <v>-851.414</v>
+      </c>
+      <c r="F20">
+        <v>777.1859999999999</v>
+      </c>
+      <c r="G20">
+        <v>651.6</v>
+      </c>
+      <c r="H20">
+        <v>2689.1</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>216.2</v>
+      </c>
+      <c r="K20">
+        <v>186.7</v>
+      </c>
+      <c r="L20">
+        <v>29.5</v>
+      </c>
+      <c r="M20">
+        <v>142.7690682</v>
+      </c>
+      <c r="N20">
+        <v>-113.2690682</v>
+      </c>
+      <c r="O20">
+        <v>-28.31726705</v>
+      </c>
+      <c r="P20">
+        <v>-84.95180114999999</v>
+      </c>
+      <c r="Q20">
+        <v>101.74819885</v>
+      </c>
+      <c r="R20">
+        <v>0.2195121951219512</v>
+      </c>
+      <c r="S20">
+        <v>0.06672601927205384</v>
+      </c>
+      <c r="T20">
+        <v>1.125020897341931</v>
+      </c>
+      <c r="U20">
+        <v>0.1837</v>
+      </c>
+      <c r="V20">
+        <v>0.05165684761399879</v>
+      </c>
+      <c r="W20">
+        <v>0.1742106370933084</v>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y20">
+        <v>0.2066273904559952</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>0.19</v>
+      </c>
+      <c r="B21">
+        <v>0.08781725047987968</v>
+      </c>
+      <c r="C21">
+        <v>1977.429687224726</v>
+      </c>
+      <c r="D21">
+        <v>2146.192687224726</v>
+      </c>
+      <c r="E21">
+        <v>-808.237</v>
+      </c>
+      <c r="F21">
+        <v>820.3629999999999</v>
+      </c>
+      <c r="G21">
+        <v>651.6</v>
+      </c>
+      <c r="H21">
+        <v>2689.1</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>216.2</v>
+      </c>
+      <c r="K21">
+        <v>186.7</v>
+      </c>
+      <c r="L21">
+        <v>29.5</v>
+      </c>
+      <c r="M21">
+        <v>150.7006831</v>
+      </c>
+      <c r="N21">
+        <v>-121.2006831</v>
+      </c>
+      <c r="O21">
+        <v>-30.300170775</v>
+      </c>
+      <c r="P21">
+        <v>-90.90051232499999</v>
+      </c>
+      <c r="Q21">
+        <v>95.79948767499999</v>
+      </c>
+      <c r="R21">
+        <v>0.2345679012345679</v>
+      </c>
+      <c r="S21">
+        <v>0.0674349824729434</v>
+      </c>
+      <c r="T21">
+        <v>1.138910044222695</v>
+      </c>
+      <c r="U21">
+        <v>0.1837</v>
+      </c>
+      <c r="V21">
+        <v>0.04893806616063043</v>
+      </c>
+      <c r="W21">
+        <v>0.1747100772462922</v>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y21">
+        <v>0.1957522646425217</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>0.2</v>
+      </c>
+      <c r="B22">
+        <v>0.08956125047987967</v>
+      </c>
+      <c r="C22">
+        <v>1887.617978393991</v>
+      </c>
+      <c r="D22">
+        <v>2099.557978393991</v>
+      </c>
+      <c r="E22">
+        <v>-765.0599999999999</v>
+      </c>
+      <c r="F22">
+        <v>863.54</v>
+      </c>
+      <c r="G22">
+        <v>651.6</v>
+      </c>
+      <c r="H22">
+        <v>2689.1</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>216.2</v>
+      </c>
+      <c r="K22">
+        <v>186.7</v>
+      </c>
+      <c r="L22">
+        <v>29.5</v>
+      </c>
+      <c r="M22">
+        <v>158.632298</v>
+      </c>
+      <c r="N22">
+        <v>-129.132298</v>
+      </c>
+      <c r="O22">
+        <v>-32.2830745</v>
+      </c>
+      <c r="P22">
+        <v>-96.84922349999999</v>
+      </c>
+      <c r="Q22">
+        <v>89.85077649999999</v>
+      </c>
+      <c r="R22">
+        <v>0.25</v>
+      </c>
+      <c r="S22">
+        <v>0.06816166975385518</v>
+      </c>
+      <c r="T22">
+        <v>1.153146419775479</v>
+      </c>
+      <c r="U22">
+        <v>0.1837</v>
+      </c>
+      <c r="V22">
+        <v>0.04649116285259891</v>
+      </c>
+      <c r="W22">
+        <v>0.1751595733839776</v>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y22">
+        <v>0.1859646514103956</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>0.21</v>
+      </c>
+      <c r="B23">
+        <v>0.09130525047987965</v>
+      </c>
+      <c r="C23">
+        <v>1799.789823828985</v>
+      </c>
+      <c r="D23">
+        <v>2054.906823828985</v>
+      </c>
+      <c r="E23">
+        <v>-721.8829999999999</v>
+      </c>
+      <c r="F23">
+        <v>906.717</v>
+      </c>
+      <c r="G23">
+        <v>651.6</v>
+      </c>
+      <c r="H23">
+        <v>2689.1</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>216.2</v>
+      </c>
+      <c r="K23">
+        <v>186.7</v>
+      </c>
+      <c r="L23">
+        <v>29.5</v>
+      </c>
+      <c r="M23">
+        <v>166.5639129</v>
+      </c>
+      <c r="N23">
+        <v>-137.0639129</v>
+      </c>
+      <c r="O23">
+        <v>-34.265978225</v>
+      </c>
+      <c r="P23">
+        <v>-102.797934675</v>
+      </c>
+      <c r="Q23">
+        <v>83.902065325</v>
+      </c>
+      <c r="R23">
+        <v>0.2658227848101266</v>
+      </c>
+      <c r="S23">
+        <v>0.06890675418111916</v>
+      </c>
+      <c r="T23">
+        <v>1.167743209899219</v>
+      </c>
+      <c r="U23">
+        <v>0.1837</v>
+      </c>
+      <c r="V23">
+        <v>0.0442772979548561</v>
+      </c>
+      <c r="W23">
+        <v>0.1755662603656929</v>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y23">
+        <v>0.1771091918194244</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>0.22</v>
+      </c>
+      <c r="B24">
+        <v>0.09304925047987966</v>
+      </c>
+      <c r="C24">
+        <v>1713.821306529153</v>
+      </c>
+      <c r="D24">
+        <v>2012.115306529153</v>
+      </c>
+      <c r="E24">
+        <v>-678.7059999999999</v>
+      </c>
+      <c r="F24">
+        <v>949.894</v>
+      </c>
+      <c r="G24">
+        <v>651.6</v>
+      </c>
+      <c r="H24">
+        <v>2689.1</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>216.2</v>
+      </c>
+      <c r="K24">
+        <v>186.7</v>
+      </c>
+      <c r="L24">
+        <v>29.5</v>
+      </c>
+      <c r="M24">
+        <v>174.4955278</v>
+      </c>
+      <c r="N24">
+        <v>-144.9955278</v>
+      </c>
+      <c r="O24">
+        <v>-36.24888195</v>
+      </c>
+      <c r="P24">
+        <v>-108.74664585</v>
+      </c>
+      <c r="Q24">
+        <v>77.95335415</v>
+      </c>
+      <c r="R24">
+        <v>0.282051282051282</v>
+      </c>
+      <c r="S24">
+        <v>0.06967094333728736</v>
+      </c>
+      <c r="T24">
+        <v>1.182714276692799</v>
+      </c>
+      <c r="U24">
+        <v>0.1837</v>
+      </c>
+      <c r="V24">
+        <v>0.04226469350236264</v>
+      </c>
+      <c r="W24">
+        <v>0.175935975803616</v>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y24">
+        <v>0.1690587740094506</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>0.23</v>
+      </c>
+      <c r="B25">
+        <v>0.09479325047987966</v>
+      </c>
+      <c r="C25">
+        <v>1629.598620759927</v>
+      </c>
+      <c r="D25">
+        <v>1971.069620759927</v>
+      </c>
+      <c r="E25">
+        <v>-635.5289999999999</v>
+      </c>
+      <c r="F25">
+        <v>993.071</v>
+      </c>
+      <c r="G25">
+        <v>651.6</v>
+      </c>
+      <c r="H25">
+        <v>2689.1</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>216.2</v>
+      </c>
+      <c r="K25">
+        <v>186.7</v>
+      </c>
+      <c r="L25">
+        <v>29.5</v>
+      </c>
+      <c r="M25">
+        <v>182.4271427</v>
+      </c>
+      <c r="N25">
+        <v>-152.9271427</v>
+      </c>
+      <c r="O25">
+        <v>-38.231785675</v>
+      </c>
+      <c r="P25">
+        <v>-114.695357025</v>
+      </c>
+      <c r="Q25">
+        <v>72.00464297499997</v>
+      </c>
+      <c r="R25">
+        <v>0.2987012987012987</v>
+      </c>
+      <c r="S25">
+        <v>0.07045498156244695</v>
+      </c>
+      <c r="T25">
+        <v>1.198074202364134</v>
+      </c>
+      <c r="U25">
+        <v>0.1837</v>
+      </c>
+      <c r="V25">
+        <v>0.0404270981326947</v>
+      </c>
+      <c r="W25">
+        <v>0.176273542073024</v>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y25">
+        <v>0.1617083925307788</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>0.24</v>
+      </c>
+      <c r="B26">
+        <v>0.09653725047987965</v>
+      </c>
+      <c r="C26">
+        <v>1547.017061357885</v>
+      </c>
+      <c r="D26">
+        <v>1931.665061357884</v>
+      </c>
+      <c r="E26">
+        <v>-592.3520000000001</v>
+      </c>
+      <c r="F26">
+        <v>1036.248</v>
+      </c>
+      <c r="G26">
+        <v>651.6</v>
+      </c>
+      <c r="H26">
+        <v>2689.1</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>216.2</v>
+      </c>
+      <c r="K26">
+        <v>186.7</v>
+      </c>
+      <c r="L26">
+        <v>29.5</v>
+      </c>
+      <c r="M26">
+        <v>190.3587576</v>
+      </c>
+      <c r="N26">
+        <v>-160.8587576</v>
+      </c>
+      <c r="O26">
+        <v>-40.21468939999999</v>
+      </c>
+      <c r="P26">
+        <v>-120.6440682</v>
+      </c>
+      <c r="Q26">
+        <v>66.05593180000002</v>
+      </c>
+      <c r="R26">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="S26">
+        <v>0.07125965237247914</v>
+      </c>
+      <c r="T26">
+        <v>1.213838336605767</v>
+      </c>
+      <c r="U26">
+        <v>0.1837</v>
+      </c>
+      <c r="V26">
+        <v>0.03874263571049909</v>
+      </c>
+      <c r="W26">
+        <v>0.1765829778199813</v>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y26">
+        <v>0.1549705428419964</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>0.25</v>
+      </c>
+      <c r="B27">
+        <v>0.09828125047987968</v>
+      </c>
+      <c r="C27">
+        <v>1465.980131891396</v>
+      </c>
+      <c r="D27">
+        <v>1893.805131891396</v>
+      </c>
+      <c r="E27">
+        <v>-549.175</v>
+      </c>
+      <c r="F27">
+        <v>1079.425</v>
+      </c>
+      <c r="G27">
+        <v>651.6</v>
+      </c>
+      <c r="H27">
+        <v>2689.1</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>216.2</v>
+      </c>
+      <c r="K27">
+        <v>186.7</v>
+      </c>
+      <c r="L27">
+        <v>29.5</v>
+      </c>
+      <c r="M27">
+        <v>198.2903725</v>
+      </c>
+      <c r="N27">
+        <v>-168.7903725</v>
+      </c>
+      <c r="O27">
+        <v>-42.197593125</v>
+      </c>
+      <c r="P27">
+        <v>-126.592779375</v>
+      </c>
+      <c r="Q27">
+        <v>60.107220625</v>
+      </c>
+      <c r="R27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="S27">
+        <v>0.07208578107077887</v>
+      </c>
+      <c r="T27">
+        <v>1.230022847760511</v>
+      </c>
+      <c r="U27">
+        <v>0.1837</v>
+      </c>
+      <c r="V27">
+        <v>0.03719293028207913</v>
+      </c>
+      <c r="W27">
+        <v>0.1768676587071821</v>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y27">
+        <v>0.1487717211283165</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>0.26</v>
+      </c>
+      <c r="B28">
+        <v>0.1000252504798797</v>
+      </c>
+      <c r="C28">
+        <v>1386.398755683573</v>
+      </c>
+      <c r="D28">
+        <v>1857.400755683572</v>
+      </c>
+      <c r="E28">
+        <v>-505.9979999999998</v>
+      </c>
+      <c r="F28">
+        <v>1122.602</v>
+      </c>
+      <c r="G28">
+        <v>651.6</v>
+      </c>
+      <c r="H28">
+        <v>2689.1</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>216.2</v>
+      </c>
+      <c r="K28">
+        <v>186.7</v>
+      </c>
+      <c r="L28">
+        <v>29.5</v>
+      </c>
+      <c r="M28">
+        <v>206.2219874</v>
+      </c>
+      <c r="N28">
+        <v>-176.7219874</v>
+      </c>
+      <c r="O28">
+        <v>-44.18049685</v>
+      </c>
+      <c r="P28">
+        <v>-132.54149055</v>
+      </c>
+      <c r="Q28">
+        <v>54.15850944999997</v>
+      </c>
+      <c r="R28">
+        <v>0.3513513513513514</v>
+      </c>
+      <c r="S28">
+        <v>0.07293423757173532</v>
+      </c>
+      <c r="T28">
+        <v>1.246644778135653</v>
+      </c>
+      <c r="U28">
+        <v>0.1837</v>
+      </c>
+      <c r="V28">
+        <v>0.03576243296353762</v>
+      </c>
+      <c r="W28">
+        <v>0.1771304410645981</v>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y28">
+        <v>0.1430497318541505</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>0.27</v>
+      </c>
+      <c r="B29">
+        <v>0.1017692504798797</v>
+      </c>
+      <c r="C29">
+        <v>1308.190576117377</v>
+      </c>
+      <c r="D29">
+        <v>1822.369576117377</v>
+      </c>
+      <c r="E29">
+        <v>-462.8209999999999</v>
+      </c>
+      <c r="F29">
+        <v>1165.779</v>
+      </c>
+      <c r="G29">
+        <v>651.6</v>
+      </c>
+      <c r="H29">
+        <v>2689.1</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>216.2</v>
+      </c>
+      <c r="K29">
+        <v>186.7</v>
+      </c>
+      <c r="L29">
+        <v>29.5</v>
+      </c>
+      <c r="M29">
+        <v>214.1536023</v>
+      </c>
+      <c r="N29">
+        <v>-184.6536023</v>
+      </c>
+      <c r="O29">
+        <v>-46.163400575</v>
+      </c>
+      <c r="P29">
+        <v>-138.490201725</v>
+      </c>
+      <c r="Q29">
+        <v>48.209798275</v>
+      </c>
+      <c r="R29">
+        <v>0.3698630136986302</v>
+      </c>
+      <c r="S29">
+        <v>0.07380593945627965</v>
+      </c>
+      <c r="T29">
+        <v>1.263722103863539</v>
+      </c>
+      <c r="U29">
+        <v>0.1837</v>
+      </c>
+      <c r="V29">
+        <v>0.03443789840933253</v>
+      </c>
+      <c r="W29">
+        <v>0.1773737580622056</v>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y29">
+        <v>0.1377515936373301</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>0.28</v>
+      </c>
+      <c r="B30">
+        <v>0.1035132504798797</v>
+      </c>
+      <c r="C30">
+        <v>1231.279334653885</v>
+      </c>
+      <c r="D30">
+        <v>1788.635334653885</v>
+      </c>
+      <c r="E30">
+        <v>-419.6439999999998</v>
+      </c>
+      <c r="F30">
+        <v>1208.956</v>
+      </c>
+      <c r="G30">
+        <v>651.6</v>
+      </c>
+      <c r="H30">
+        <v>2689.1</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>216.2</v>
+      </c>
+      <c r="K30">
+        <v>186.7</v>
+      </c>
+      <c r="L30">
+        <v>29.5</v>
+      </c>
+      <c r="M30">
+        <v>222.0852172</v>
+      </c>
+      <c r="N30">
+        <v>-192.5852172</v>
+      </c>
+      <c r="O30">
+        <v>-48.1463043</v>
+      </c>
+      <c r="P30">
+        <v>-144.4389129</v>
+      </c>
+      <c r="Q30">
+        <v>42.26108709999997</v>
+      </c>
+      <c r="R30">
+        <v>0.388888888888889</v>
+      </c>
+      <c r="S30">
+        <v>0.07470185528206133</v>
+      </c>
+      <c r="T30">
+        <v>1.281273799750532</v>
+      </c>
+      <c r="U30">
+        <v>0.1837</v>
+      </c>
+      <c r="V30">
+        <v>0.03320797346614207</v>
+      </c>
+      <c r="W30">
+        <v>0.1775996952742697</v>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y30">
+        <v>0.1328318938645683</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>0.29</v>
+      </c>
+      <c r="B31">
+        <v>0.1052572504798797</v>
+      </c>
+      <c r="C31">
+        <v>1155.59431667675</v>
+      </c>
+      <c r="D31">
+        <v>1756.12731667675</v>
+      </c>
+      <c r="E31">
+        <v>-376.4670000000001</v>
+      </c>
+      <c r="F31">
+        <v>1252.133</v>
+      </c>
+      <c r="G31">
+        <v>651.6</v>
+      </c>
+      <c r="H31">
+        <v>2689.1</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>216.2</v>
+      </c>
+      <c r="K31">
+        <v>186.7</v>
+      </c>
+      <c r="L31">
+        <v>29.5</v>
+      </c>
+      <c r="M31">
+        <v>230.0168321</v>
+      </c>
+      <c r="N31">
+        <v>-200.5168321</v>
+      </c>
+      <c r="O31">
+        <v>-50.12920802499999</v>
+      </c>
+      <c r="P31">
+        <v>-150.387624075</v>
+      </c>
+      <c r="Q31">
+        <v>36.31237592500003</v>
+      </c>
+      <c r="R31">
+        <v>0.4084507042253521</v>
+      </c>
+      <c r="S31">
+        <v>0.07562300817335796</v>
+      </c>
+      <c r="T31">
+        <v>1.299319909606174</v>
+      </c>
+      <c r="U31">
+        <v>0.1837</v>
+      </c>
+      <c r="V31">
+        <v>0.03206287093282684</v>
+      </c>
+      <c r="W31">
+        <v>0.1778100506096397</v>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y31">
+        <v>0.1282514837313073</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>0.3</v>
+      </c>
+      <c r="B32">
+        <v>0.1070012504798797</v>
+      </c>
+      <c r="C32">
+        <v>1081.069856687843</v>
+      </c>
+      <c r="D32">
+        <v>1724.779856687843</v>
+      </c>
+      <c r="E32">
+        <v>-333.29</v>
+      </c>
+      <c r="F32">
+        <v>1295.31</v>
+      </c>
+      <c r="G32">
+        <v>651.6</v>
+      </c>
+      <c r="H32">
+        <v>2689.1</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>216.2</v>
+      </c>
+      <c r="K32">
+        <v>186.7</v>
+      </c>
+      <c r="L32">
+        <v>29.5</v>
+      </c>
+      <c r="M32">
+        <v>237.948447</v>
+      </c>
+      <c r="N32">
+        <v>-208.448447</v>
+      </c>
+      <c r="O32">
+        <v>-52.11211175</v>
+      </c>
+      <c r="P32">
+        <v>-156.33633525</v>
+      </c>
+      <c r="Q32">
+        <v>30.36366475</v>
+      </c>
+      <c r="R32">
+        <v>0.4285714285714286</v>
+      </c>
+      <c r="S32">
+        <v>0.07657047971869164</v>
+      </c>
+      <c r="T32">
+        <v>1.317881622600547</v>
+      </c>
+      <c r="U32">
+        <v>0.1837</v>
+      </c>
+      <c r="V32">
+        <v>0.03099410856839927</v>
+      </c>
+      <c r="W32">
+        <v>0.1780063822559851</v>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y32">
+        <v>0.1239764342735971</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>0.31</v>
+      </c>
+      <c r="B33">
+        <v>0.1087452504798797</v>
+      </c>
+      <c r="C33">
+        <v>1007.644895568049</v>
+      </c>
+      <c r="D33">
+        <v>1694.531895568048</v>
+      </c>
+      <c r="E33">
+        <v>-290.1130000000001</v>
+      </c>
+      <c r="F33">
+        <v>1338.487</v>
+      </c>
+      <c r="G33">
+        <v>651.6</v>
+      </c>
+      <c r="H33">
+        <v>2689.1</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>216.2</v>
+      </c>
+      <c r="K33">
+        <v>186.7</v>
+      </c>
+      <c r="L33">
+        <v>29.5</v>
+      </c>
+      <c r="M33">
+        <v>245.8800619</v>
+      </c>
+      <c r="N33">
+        <v>-216.3800619</v>
+      </c>
+      <c r="O33">
+        <v>-54.095015475</v>
+      </c>
+      <c r="P33">
+        <v>-162.285046425</v>
+      </c>
+      <c r="Q33">
+        <v>24.414953575</v>
+      </c>
+      <c r="R33">
+        <v>0.4492753623188406</v>
+      </c>
+      <c r="S33">
+        <v>0.07754541420736834</v>
+      </c>
+      <c r="T33">
+        <v>1.336981356261425</v>
+      </c>
+      <c r="U33">
+        <v>0.1837</v>
+      </c>
+      <c r="V33">
+        <v>0.02999429861457994</v>
+      </c>
+      <c r="W33">
+        <v>0.1781900473445017</v>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y33">
+        <v>0.1199771944583198</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>0.32</v>
+      </c>
+      <c r="B34">
+        <v>0.1104892504798797</v>
+      </c>
+      <c r="C34">
+        <v>935.2625836218128</v>
+      </c>
+      <c r="D34">
+        <v>1665.326583621813</v>
+      </c>
+      <c r="E34">
+        <v>-246.9359999999999</v>
+      </c>
+      <c r="F34">
+        <v>1381.664</v>
+      </c>
+      <c r="G34">
+        <v>651.6</v>
+      </c>
+      <c r="H34">
+        <v>2689.1</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>216.2</v>
+      </c>
+      <c r="K34">
+        <v>186.7</v>
+      </c>
+      <c r="L34">
+        <v>29.5</v>
+      </c>
+      <c r="M34">
+        <v>253.8116768</v>
+      </c>
+      <c r="N34">
+        <v>-224.3116768</v>
+      </c>
+      <c r="O34">
+        <v>-56.0779192</v>
+      </c>
+      <c r="P34">
+        <v>-168.2337576</v>
+      </c>
+      <c r="Q34">
+        <v>18.4662424</v>
+      </c>
+      <c r="R34">
+        <v>0.4705882352941177</v>
+      </c>
+      <c r="S34">
+        <v>0.07854902323982962</v>
+      </c>
+      <c r="T34">
+        <v>1.356642846794681</v>
+      </c>
+      <c r="U34">
+        <v>0.1837</v>
+      </c>
+      <c r="V34">
+        <v>0.02905697678287432</v>
+      </c>
+      <c r="W34">
+        <v>0.178362233364986</v>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y34">
+        <v>0.1162279071314972</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>0.33</v>
+      </c>
+      <c r="B35">
+        <v>0.1122332504798796</v>
+      </c>
+      <c r="C35">
+        <v>863.8699239754278</v>
+      </c>
+      <c r="D35">
+        <v>1637.110923975428</v>
+      </c>
+      <c r="E35">
+        <v>-203.759</v>
+      </c>
+      <c r="F35">
+        <v>1424.841</v>
+      </c>
+      <c r="G35">
+        <v>651.6</v>
+      </c>
+      <c r="H35">
+        <v>2689.1</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>216.2</v>
+      </c>
+      <c r="K35">
+        <v>186.7</v>
+      </c>
+      <c r="L35">
+        <v>29.5</v>
+      </c>
+      <c r="M35">
+        <v>261.7432917</v>
+      </c>
+      <c r="N35">
+        <v>-232.2432917</v>
+      </c>
+      <c r="O35">
+        <v>-58.060822925</v>
+      </c>
+      <c r="P35">
+        <v>-174.182468775</v>
+      </c>
+      <c r="Q35">
+        <v>12.517531225</v>
+      </c>
+      <c r="R35">
+        <v>0.4925373134328359</v>
+      </c>
+      <c r="S35">
+        <v>0.07958259075087186</v>
+      </c>
+      <c r="T35">
+        <v>1.376891247493109</v>
+      </c>
+      <c r="U35">
+        <v>0.1837</v>
+      </c>
+      <c r="V35">
+        <v>0.02817646233490843</v>
+      </c>
+      <c r="W35">
+        <v>0.1785239838690773</v>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y35">
+        <v>0.1127058493396337</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>0.34</v>
+      </c>
+      <c r="B36">
+        <v>0.1139772504798797</v>
+      </c>
+      <c r="C36">
+        <v>793.4174516227986</v>
+      </c>
+      <c r="D36">
+        <v>1609.835451622798</v>
+      </c>
+      <c r="E36">
+        <v>-160.5819999999999</v>
+      </c>
+      <c r="F36">
+        <v>1468.018</v>
+      </c>
+      <c r="G36">
+        <v>651.6</v>
+      </c>
+      <c r="H36">
+        <v>2689.1</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>216.2</v>
+      </c>
+      <c r="K36">
+        <v>186.7</v>
+      </c>
+      <c r="L36">
+        <v>29.5</v>
+      </c>
+      <c r="M36">
+        <v>269.6749066</v>
+      </c>
+      <c r="N36">
+        <v>-240.1749066</v>
+      </c>
+      <c r="O36">
+        <v>-60.04372665</v>
+      </c>
+      <c r="P36">
+        <v>-180.13117995</v>
+      </c>
+      <c r="Q36">
+        <v>6.568820049999999</v>
+      </c>
+      <c r="R36">
+        <v>0.5151515151515152</v>
+      </c>
+      <c r="S36">
+        <v>0.08064747848952143</v>
+      </c>
+      <c r="T36">
+        <v>1.39775323609149</v>
+      </c>
+      <c r="U36">
+        <v>0.1837</v>
+      </c>
+      <c r="V36">
+        <v>0.02734774285446995</v>
+      </c>
+      <c r="W36">
+        <v>0.1786762196376339</v>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y36">
+        <v>0.1093909714178798</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>0.35</v>
+      </c>
+      <c r="B37">
+        <v>0.1157212504798797</v>
+      </c>
+      <c r="C37">
+        <v>723.858944029435</v>
+      </c>
+      <c r="D37">
+        <v>1583.453944029435</v>
+      </c>
+      <c r="E37">
+        <v>-117.4049999999997</v>
+      </c>
+      <c r="F37">
+        <v>1511.195</v>
+      </c>
+      <c r="G37">
+        <v>651.6</v>
+      </c>
+      <c r="H37">
+        <v>2689.1</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>216.2</v>
+      </c>
+      <c r="K37">
+        <v>186.7</v>
+      </c>
+      <c r="L37">
+        <v>29.5</v>
+      </c>
+      <c r="M37">
+        <v>277.6065215</v>
+      </c>
+      <c r="N37">
+        <v>-248.1065215</v>
+      </c>
+      <c r="O37">
+        <v>-62.02663037500001</v>
+      </c>
+      <c r="P37">
+        <v>-186.079891125</v>
+      </c>
+      <c r="Q37">
+        <v>0.6201088749999712</v>
+      </c>
+      <c r="R37">
+        <v>0.5384615384615385</v>
+      </c>
+      <c r="S37">
+        <v>0.08174513200474486</v>
+      </c>
+      <c r="T37">
+        <v>1.419257132031359</v>
+      </c>
+      <c r="U37">
+        <v>0.1837</v>
+      </c>
+      <c r="V37">
+        <v>0.02656637877291366</v>
+      </c>
+      <c r="W37">
+        <v>0.1788197562194158</v>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y37">
+        <v>0.1062655150916546</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>0.36</v>
+      </c>
+      <c r="B38">
+        <v>0.1174652504798797</v>
+      </c>
+      <c r="C38">
+        <v>655.1511597328554</v>
+      </c>
+      <c r="D38">
+        <v>1557.923159732855</v>
+      </c>
+      <c r="E38">
+        <v>-74.22800000000007</v>
+      </c>
+      <c r="F38">
+        <v>1554.372</v>
+      </c>
+      <c r="G38">
+        <v>651.6</v>
+      </c>
+      <c r="H38">
+        <v>2689.1</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>216.2</v>
+      </c>
+      <c r="K38">
+        <v>186.7</v>
+      </c>
+      <c r="L38">
+        <v>29.5</v>
+      </c>
+      <c r="M38">
+        <v>285.5381364</v>
+      </c>
+      <c r="N38">
+        <v>-256.0381364</v>
+      </c>
+      <c r="O38">
+        <v>-64.0095341</v>
+      </c>
+      <c r="P38">
+        <v>-192.0286023</v>
+      </c>
+      <c r="Q38">
+        <v>-5.3286023</v>
+      </c>
+      <c r="R38">
+        <v>0.5625</v>
+      </c>
+      <c r="S38">
+        <v>0.08287708719231898</v>
+      </c>
+      <c r="T38">
+        <v>1.441433024719349</v>
+      </c>
+      <c r="U38">
+        <v>0.1837</v>
+      </c>
+      <c r="V38">
+        <v>0.02582842380699939</v>
+      </c>
+      <c r="W38">
+        <v>0.1789553185466542</v>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y38">
+        <v>0.1033136952279976</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>0.37</v>
+      </c>
+      <c r="B39">
+        <v>0.1192092504798797</v>
+      </c>
+      <c r="C39">
+        <v>587.253601829756</v>
+      </c>
+      <c r="D39">
+        <v>1533.202601829756</v>
+      </c>
+      <c r="E39">
+        <v>-31.05099999999993</v>
+      </c>
+      <c r="F39">
+        <v>1597.549</v>
+      </c>
+      <c r="G39">
+        <v>651.6</v>
+      </c>
+      <c r="H39">
+        <v>2689.1</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>216.2</v>
+      </c>
+      <c r="K39">
+        <v>186.7</v>
+      </c>
+      <c r="L39">
+        <v>29.5</v>
+      </c>
+      <c r="M39">
+        <v>293.4697513</v>
+      </c>
+      <c r="N39">
+        <v>-263.9697513</v>
+      </c>
+      <c r="O39">
+        <v>-65.992437825</v>
+      </c>
+      <c r="P39">
+        <v>-197.977313475</v>
+      </c>
+      <c r="Q39">
+        <v>-11.277313475</v>
+      </c>
+      <c r="R39">
+        <v>0.5873015873015873</v>
+      </c>
+      <c r="S39">
+        <v>0.08404497746521294</v>
+      </c>
+      <c r="T39">
+        <v>1.464312914000608</v>
+      </c>
+      <c r="U39">
+        <v>0.1837</v>
+      </c>
+      <c r="V39">
+        <v>0.02513035829870211</v>
+      </c>
+      <c r="W39">
+        <v>0.1790835531805284</v>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y39">
+        <v>0.1005214331948084</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>0.38</v>
+      </c>
+      <c r="B40">
+        <v>0.1209532504798797</v>
+      </c>
+      <c r="C40">
+        <v>520.1283036288639</v>
+      </c>
+      <c r="D40">
+        <v>1509.254303628864</v>
+      </c>
+      <c r="E40">
+        <v>12.12599999999998</v>
+      </c>
+      <c r="F40">
+        <v>1640.726</v>
+      </c>
+      <c r="G40">
+        <v>651.6</v>
+      </c>
+      <c r="H40">
+        <v>2689.1</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>216.2</v>
+      </c>
+      <c r="K40">
+        <v>186.7</v>
+      </c>
+      <c r="L40">
+        <v>29.5</v>
+      </c>
+      <c r="M40">
+        <v>301.4013662</v>
+      </c>
+      <c r="N40">
+        <v>-271.9013662</v>
+      </c>
+      <c r="O40">
+        <v>-67.97534155</v>
+      </c>
+      <c r="P40">
+        <v>-203.92602465</v>
+      </c>
+      <c r="Q40">
+        <v>-17.22602465</v>
+      </c>
+      <c r="R40">
+        <v>0.6129032258064516</v>
+      </c>
+      <c r="S40">
+        <v>0.08525054161787766</v>
+      </c>
+      <c r="T40">
+        <v>1.487930864226425</v>
+      </c>
+      <c r="U40">
+        <v>0.1837</v>
+      </c>
+      <c r="V40">
+        <v>0.02446903308031522</v>
+      </c>
+      <c r="W40">
+        <v>0.1792050386231461</v>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y40">
+        <v>0.09787613232126091</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>0.39</v>
+      </c>
+      <c r="B41">
+        <v>0.1226972504798797</v>
+      </c>
+      <c r="C41">
+        <v>453.739634083174</v>
+      </c>
+      <c r="D41">
+        <v>1486.042634083174</v>
+      </c>
+      <c r="E41">
+        <v>55.30300000000011</v>
+      </c>
+      <c r="F41">
+        <v>1683.903</v>
+      </c>
+      <c r="G41">
+        <v>651.6</v>
+      </c>
+      <c r="H41">
+        <v>2689.1</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>216.2</v>
+      </c>
+      <c r="K41">
+        <v>186.7</v>
+      </c>
+      <c r="L41">
+        <v>29.5</v>
+      </c>
+      <c r="M41">
+        <v>309.3329811</v>
+      </c>
+      <c r="N41">
+        <v>-279.8329811</v>
+      </c>
+      <c r="O41">
+        <v>-69.958245275</v>
+      </c>
+      <c r="P41">
+        <v>-209.874735825</v>
+      </c>
+      <c r="Q41">
+        <v>-23.174735825</v>
+      </c>
+      <c r="R41">
+        <v>0.639344262295082</v>
+      </c>
+      <c r="S41">
+        <v>0.08649563246407238</v>
+      </c>
+      <c r="T41">
+        <v>1.512323173476038</v>
+      </c>
+      <c r="U41">
+        <v>0.1837</v>
+      </c>
+      <c r="V41">
+        <v>0.02384162197569175</v>
+      </c>
+      <c r="W41">
+        <v>0.1793202940430654</v>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y41">
+        <v>0.09536648790276703</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>0.4</v>
+      </c>
+      <c r="B42">
+        <v>0.1244412504798797</v>
+      </c>
+      <c r="C42">
+        <v>388.0541209044509</v>
+      </c>
+      <c r="D42">
+        <v>1463.534120904451</v>
+      </c>
+      <c r="E42">
+        <v>98.48000000000002</v>
+      </c>
+      <c r="F42">
+        <v>1727.08</v>
+      </c>
+      <c r="G42">
+        <v>651.6</v>
+      </c>
+      <c r="H42">
+        <v>2689.1</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>216.2</v>
+      </c>
+      <c r="K42">
+        <v>186.7</v>
+      </c>
+      <c r="L42">
+        <v>29.5</v>
+      </c>
+      <c r="M42">
+        <v>317.264596</v>
+      </c>
+      <c r="N42">
+        <v>-287.764596</v>
+      </c>
+      <c r="O42">
+        <v>-71.941149</v>
+      </c>
+      <c r="P42">
+        <v>-215.823447</v>
+      </c>
+      <c r="Q42">
+        <v>-29.123447</v>
+      </c>
+      <c r="R42">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="S42">
+        <v>0.08778222633847359</v>
+      </c>
+      <c r="T42">
+        <v>1.537528559700639</v>
+      </c>
+      <c r="U42">
+        <v>0.1837</v>
+      </c>
+      <c r="V42">
+        <v>0.02324558142629946</v>
+      </c>
+      <c r="W42">
+        <v>0.1794297866919888</v>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y42">
+        <v>0.09298232570519782</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>0.41</v>
+      </c>
+      <c r="B43">
+        <v>0.1261852504798797</v>
+      </c>
+      <c r="C43">
+        <v>323.0402895131647</v>
+      </c>
+      <c r="D43">
+        <v>1441.697289513165</v>
+      </c>
+      <c r="E43">
+        <v>141.6570000000002</v>
+      </c>
+      <c r="F43">
+        <v>1770.257</v>
+      </c>
+      <c r="G43">
+        <v>651.6</v>
+      </c>
+      <c r="H43">
+        <v>2689.1</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>216.2</v>
+      </c>
+      <c r="K43">
+        <v>186.7</v>
+      </c>
+      <c r="L43">
+        <v>29.5</v>
+      </c>
+      <c r="M43">
+        <v>325.1962109</v>
+      </c>
+      <c r="N43">
+        <v>-295.6962109</v>
+      </c>
+      <c r="O43">
+        <v>-73.92405272500001</v>
+      </c>
+      <c r="P43">
+        <v>-221.772158175</v>
+      </c>
+      <c r="Q43">
+        <v>-35.07215817500003</v>
+      </c>
+      <c r="R43">
+        <v>0.6949152542372882</v>
+      </c>
+      <c r="S43">
+        <v>0.08911243356454941</v>
+      </c>
+      <c r="T43">
+        <v>1.56358836579726</v>
+      </c>
+      <c r="U43">
+        <v>0.1837</v>
+      </c>
+      <c r="V43">
+        <v>0.022678616025658</v>
+      </c>
+      <c r="W43">
+        <v>0.1795339382360866</v>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y43">
+        <v>0.09071446410263195</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>0.42</v>
+      </c>
+      <c r="B44">
+        <v>0.1279292504798797</v>
+      </c>
+      <c r="C44">
+        <v>258.6685161942739</v>
+      </c>
+      <c r="D44">
+        <v>1420.502516194274</v>
+      </c>
+      <c r="E44">
+        <v>184.8340000000001</v>
+      </c>
+      <c r="F44">
+        <v>1813.434</v>
+      </c>
+      <c r="G44">
+        <v>651.6</v>
+      </c>
+      <c r="H44">
+        <v>2689.1</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>216.2</v>
+      </c>
+      <c r="K44">
+        <v>186.7</v>
+      </c>
+      <c r="L44">
+        <v>29.5</v>
+      </c>
+      <c r="M44">
+        <v>333.1278258</v>
+      </c>
+      <c r="N44">
+        <v>-303.6278258</v>
+      </c>
+      <c r="O44">
+        <v>-75.90695645</v>
+      </c>
+      <c r="P44">
+        <v>-227.72086935</v>
+      </c>
+      <c r="Q44">
+        <v>-41.02086935</v>
+      </c>
+      <c r="R44">
+        <v>0.7241379310344827</v>
+      </c>
+      <c r="S44">
+        <v>0.09048851000531749</v>
+      </c>
+      <c r="T44">
+        <v>1.590546785897212</v>
+      </c>
+      <c r="U44">
+        <v>0.1837</v>
+      </c>
+      <c r="V44">
+        <v>0.02213864897742805</v>
+      </c>
+      <c r="W44">
+        <v>0.1796331301828465</v>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y44">
+        <v>0.08855459590971226</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>0.43</v>
+      </c>
+      <c r="B45">
+        <v>0.1296732504798797</v>
+      </c>
+      <c r="C45">
+        <v>194.9108940181131</v>
+      </c>
+      <c r="D45">
+        <v>1399.921894018113</v>
+      </c>
+      <c r="E45">
+        <v>228.011</v>
+      </c>
+      <c r="F45">
+        <v>1856.611</v>
+      </c>
+      <c r="G45">
+        <v>651.6</v>
+      </c>
+      <c r="H45">
+        <v>2689.1</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>216.2</v>
+      </c>
+      <c r="K45">
+        <v>186.7</v>
+      </c>
+      <c r="L45">
+        <v>29.5</v>
+      </c>
+      <c r="M45">
+        <v>341.0594407</v>
+      </c>
+      <c r="N45">
+        <v>-311.5594407</v>
+      </c>
+      <c r="O45">
+        <v>-77.889860175</v>
+      </c>
+      <c r="P45">
+        <v>-233.669580525</v>
+      </c>
+      <c r="Q45">
+        <v>-46.969580525</v>
+      </c>
+      <c r="R45">
+        <v>0.7543859649122806</v>
+      </c>
+      <c r="S45">
+        <v>0.09191286982997218</v>
+      </c>
+      <c r="T45">
+        <v>1.618451115474356</v>
+      </c>
+      <c r="U45">
+        <v>0.1837</v>
+      </c>
+      <c r="V45">
+        <v>0.0216237966756274</v>
+      </c>
+      <c r="W45">
+        <v>0.1797277085506873</v>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y45">
+        <v>0.08649518670250955</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>0.44</v>
+      </c>
+      <c r="B46">
+        <v>0.1314172504798796</v>
+      </c>
+      <c r="C46">
+        <v>131.741110250272</v>
+      </c>
+      <c r="D46">
+        <v>1379.929110250272</v>
+      </c>
+      <c r="E46">
+        <v>271.1880000000001</v>
+      </c>
+      <c r="F46">
+        <v>1899.788</v>
+      </c>
+      <c r="G46">
+        <v>651.6</v>
+      </c>
+      <c r="H46">
+        <v>2689.1</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>216.2</v>
+      </c>
+      <c r="K46">
+        <v>186.7</v>
+      </c>
+      <c r="L46">
+        <v>29.5</v>
+      </c>
+      <c r="M46">
+        <v>348.9910556</v>
+      </c>
+      <c r="N46">
+        <v>-319.4910556</v>
+      </c>
+      <c r="O46">
+        <v>-79.8727639</v>
+      </c>
+      <c r="P46">
+        <v>-239.6182917</v>
+      </c>
+      <c r="Q46">
+        <v>-52.9182917</v>
+      </c>
+      <c r="R46">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="S46">
+        <v>0.09338809964836454</v>
+      </c>
+      <c r="T46">
+        <v>1.647352028250684</v>
+      </c>
+      <c r="U46">
+        <v>0.1837</v>
+      </c>
+      <c r="V46">
+        <v>0.02113234675118132</v>
+      </c>
+      <c r="W46">
+        <v>0.179817987901808</v>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y46">
+        <v>0.08452938700472534</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>0.45</v>
+      </c>
+      <c r="B47">
+        <v>0.1331612504798797</v>
+      </c>
+      <c r="C47">
+        <v>69.13433411808705</v>
+      </c>
+      <c r="D47">
+        <v>1360.499334118087</v>
+      </c>
+      <c r="E47">
+        <v>314.365</v>
+      </c>
+      <c r="F47">
+        <v>1942.965</v>
+      </c>
+      <c r="G47">
+        <v>651.6</v>
+      </c>
+      <c r="H47">
+        <v>2689.1</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>216.2</v>
+      </c>
+      <c r="K47">
+        <v>186.7</v>
+      </c>
+      <c r="L47">
+        <v>29.5</v>
+      </c>
+      <c r="M47">
+        <v>356.9226705</v>
+      </c>
+      <c r="N47">
+        <v>-327.4226705</v>
+      </c>
+      <c r="O47">
+        <v>-81.855667625</v>
+      </c>
+      <c r="P47">
+        <v>-245.567002875</v>
+      </c>
+      <c r="Q47">
+        <v>-58.867002875</v>
+      </c>
+      <c r="R47">
+        <v>0.8181818181818181</v>
+      </c>
+      <c r="S47">
+        <v>0.09491697418742573</v>
+      </c>
+      <c r="T47">
+        <v>1.677303883309788</v>
+      </c>
+      <c r="U47">
+        <v>0.1837</v>
+      </c>
+      <c r="V47">
+        <v>0.02066273904559952</v>
+      </c>
+      <c r="W47">
+        <v>0.1799042548373234</v>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y47">
+        <v>0.08265095618239804</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>0.46</v>
+      </c>
+      <c r="B48">
+        <v>0.1349052504798797</v>
+      </c>
+      <c r="C48">
+        <v>7.067113927156015</v>
+      </c>
+      <c r="D48">
+        <v>1341.609113927156</v>
+      </c>
+      <c r="E48">
+        <v>357.5420000000001</v>
+      </c>
+      <c r="F48">
+        <v>1986.142</v>
+      </c>
+      <c r="G48">
+        <v>651.6</v>
+      </c>
+      <c r="H48">
+        <v>2689.1</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>216.2</v>
+      </c>
+      <c r="K48">
+        <v>186.7</v>
+      </c>
+      <c r="L48">
+        <v>29.5</v>
+      </c>
+      <c r="M48">
+        <v>364.8542854</v>
+      </c>
+      <c r="N48">
+        <v>-335.3542854</v>
+      </c>
+      <c r="O48">
+        <v>-83.83857135000001</v>
+      </c>
+      <c r="P48">
+        <v>-251.51571405</v>
+      </c>
+      <c r="Q48">
+        <v>-64.81571405000005</v>
+      </c>
+      <c r="R48">
+        <v>0.8518518518518519</v>
+      </c>
+      <c r="S48">
+        <v>0.09650247370941509</v>
+      </c>
+      <c r="T48">
+        <v>1.708365066334043</v>
+      </c>
+      <c r="U48">
+        <v>0.1837</v>
+      </c>
+      <c r="V48">
+        <v>0.02021354906634735</v>
+      </c>
+      <c r="W48">
+        <v>0.179986771036512</v>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y48">
+        <v>0.08085419626538937</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>0.47</v>
+      </c>
+      <c r="B49">
+        <v>0.1366492504798797</v>
+      </c>
+      <c r="C49">
+        <v>-54.48271736845163</v>
+      </c>
+      <c r="D49">
+        <v>1323.236282631548</v>
+      </c>
+      <c r="E49">
+        <v>400.7190000000001</v>
+      </c>
+      <c r="F49">
+        <v>2029.319</v>
+      </c>
+      <c r="G49">
+        <v>651.6</v>
+      </c>
+      <c r="H49">
+        <v>2689.1</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>216.2</v>
+      </c>
+      <c r="K49">
+        <v>186.7</v>
+      </c>
+      <c r="L49">
+        <v>29.5</v>
+      </c>
+      <c r="M49">
+        <v>372.7859003</v>
+      </c>
+      <c r="N49">
+        <v>-343.2859003</v>
+      </c>
+      <c r="O49">
+        <v>-85.821475075</v>
+      </c>
+      <c r="P49">
+        <v>-257.464425225</v>
+      </c>
+      <c r="Q49">
+        <v>-70.76442522500002</v>
+      </c>
+      <c r="R49">
+        <v>0.8867924528301887</v>
+      </c>
+      <c r="S49">
+        <v>0.09814780340204556</v>
+      </c>
+      <c r="T49">
+        <v>1.740598369472421</v>
+      </c>
+      <c r="U49">
+        <v>0.1837</v>
+      </c>
+      <c r="V49">
+        <v>0.01978347355429741</v>
+      </c>
+      <c r="W49">
+        <v>0.1800657759080756</v>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y49">
+        <v>0.07913389421718964</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>0.48</v>
+      </c>
+      <c r="B50">
+        <v>0.1383932504798797</v>
+      </c>
+      <c r="C50">
+        <v>-115.5361289417201</v>
+      </c>
+      <c r="D50">
+        <v>1305.359871058279</v>
+      </c>
+      <c r="E50">
+        <v>443.8959999999997</v>
+      </c>
+      <c r="F50">
+        <v>2072.496</v>
+      </c>
+      <c r="G50">
+        <v>651.6</v>
+      </c>
+      <c r="H50">
+        <v>2689.1</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>216.2</v>
+      </c>
+      <c r="K50">
+        <v>186.7</v>
+      </c>
+      <c r="L50">
+        <v>29.5</v>
+      </c>
+      <c r="M50">
+        <v>380.7175151999999</v>
+      </c>
+      <c r="N50">
+        <v>-351.2175151999999</v>
+      </c>
+      <c r="O50">
+        <v>-87.80437879999998</v>
+      </c>
+      <c r="P50">
+        <v>-263.4131363999999</v>
+      </c>
+      <c r="Q50">
+        <v>-76.71313639999994</v>
+      </c>
+      <c r="R50">
+        <v>0.923076923076923</v>
+      </c>
+      <c r="S50">
+        <v>0.09985641500593105</v>
+      </c>
+      <c r="T50">
+        <v>1.774071415039198</v>
+      </c>
+      <c r="U50">
+        <v>0.1837</v>
+      </c>
+      <c r="V50">
+        <v>0.01937131785524955</v>
+      </c>
+      <c r="W50">
+        <v>0.1801414889099907</v>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y50">
+        <v>0.07748527142099815</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>0.49</v>
+      </c>
+      <c r="B51">
+        <v>0.1401372504798797</v>
+      </c>
+      <c r="C51">
+        <v>-176.1129719281466</v>
+      </c>
+      <c r="D51">
+        <v>1287.960028071853</v>
+      </c>
+      <c r="E51">
+        <v>487.0729999999999</v>
+      </c>
+      <c r="F51">
+        <v>2115.673</v>
+      </c>
+      <c r="G51">
+        <v>651.6</v>
+      </c>
+      <c r="H51">
+        <v>2689.1</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>216.2</v>
+      </c>
+      <c r="K51">
+        <v>186.7</v>
+      </c>
+      <c r="L51">
+        <v>29.5</v>
+      </c>
+      <c r="M51">
+        <v>388.6491301</v>
+      </c>
+      <c r="N51">
+        <v>-359.1491301</v>
+      </c>
+      <c r="O51">
+        <v>-89.78728252499999</v>
+      </c>
+      <c r="P51">
+        <v>-269.361847575</v>
+      </c>
+      <c r="Q51">
+        <v>-82.66184757499997</v>
+      </c>
+      <c r="R51">
+        <v>0.9607843137254901</v>
+      </c>
+      <c r="S51">
+        <v>0.1016320309864395</v>
+      </c>
+      <c r="T51">
+        <v>1.808857129059575</v>
+      </c>
+      <c r="U51">
+        <v>0.1837</v>
+      </c>
+      <c r="V51">
+        <v>0.01897598483779547</v>
+      </c>
+      <c r="W51">
+        <v>0.180214111585297</v>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y51">
+        <v>0.07590393935118189</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>0.5</v>
+      </c>
+      <c r="B52">
+        <v>0.1418812504798797</v>
+      </c>
+      <c r="C52">
+        <v>-236.232052960172</v>
+      </c>
+      <c r="D52">
+        <v>1271.017947039828</v>
+      </c>
+      <c r="E52">
+        <v>530.25</v>
+      </c>
+      <c r="F52">
+        <v>2158.85</v>
+      </c>
+      <c r="G52">
+        <v>651.6</v>
+      </c>
+      <c r="H52">
+        <v>2689.1</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>216.2</v>
+      </c>
+      <c r="K52">
+        <v>186.7</v>
+      </c>
+      <c r="L52">
+        <v>29.5</v>
+      </c>
+      <c r="M52">
+        <v>396.580745</v>
+      </c>
+      <c r="N52">
+        <v>-367.080745</v>
+      </c>
+      <c r="O52">
+        <v>-91.77018624999999</v>
+      </c>
+      <c r="P52">
+        <v>-275.31055875</v>
+      </c>
+      <c r="Q52">
+        <v>-88.61055875</v>
+      </c>
+      <c r="R52">
+        <v>1</v>
+      </c>
+      <c r="S52">
+        <v>0.1034786716061683</v>
+      </c>
+      <c r="T52">
+        <v>1.845034271640766</v>
+      </c>
+      <c r="U52">
+        <v>0.1837</v>
+      </c>
+      <c r="V52">
+        <v>0.01859646514103956</v>
+      </c>
+      <c r="W52">
+        <v>0.1802838293535911</v>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y52">
+        <v>0.0743858605641583</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>0.51</v>
+      </c>
+      <c r="B53">
+        <v>0.1436252504798797</v>
+      </c>
+      <c r="C53">
+        <v>-295.9112019732461</v>
+      </c>
+      <c r="D53">
+        <v>1254.515798026754</v>
+      </c>
+      <c r="E53">
+        <v>573.4270000000001</v>
+      </c>
+      <c r="F53">
+        <v>2202.027</v>
+      </c>
+      <c r="G53">
+        <v>651.6</v>
+      </c>
+      <c r="H53">
+        <v>2689.1</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>216.2</v>
+      </c>
+      <c r="K53">
+        <v>186.7</v>
+      </c>
+      <c r="L53">
+        <v>29.5</v>
+      </c>
+      <c r="M53">
+        <v>404.5123599</v>
+      </c>
+      <c r="N53">
+        <v>-375.0123599</v>
+      </c>
+      <c r="O53">
+        <v>-93.75308997500001</v>
+      </c>
+      <c r="P53">
+        <v>-281.259269925</v>
+      </c>
+      <c r="Q53">
+        <v>-94.55926992500002</v>
+      </c>
+      <c r="R53">
+        <v>1.040816326530612</v>
+      </c>
+      <c r="S53">
+        <v>0.1054006853124166</v>
+      </c>
+      <c r="T53">
+        <v>1.882688032286496</v>
+      </c>
+      <c r="U53">
+        <v>0.1837</v>
+      </c>
+      <c r="V53">
+        <v>0.01823182856964663</v>
+      </c>
+      <c r="W53">
+        <v>0.1803508130917559</v>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y53">
+        <v>0.07292731427858656</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>0.52</v>
+      </c>
+      <c r="B54">
+        <v>0.1453692504798797</v>
+      </c>
+      <c r="C54">
+        <v>-355.1673347974706</v>
+      </c>
+      <c r="D54">
+        <v>1238.436665202529</v>
+      </c>
+      <c r="E54">
+        <v>616.6040000000003</v>
+      </c>
+      <c r="F54">
+        <v>2245.204</v>
+      </c>
+      <c r="G54">
+        <v>651.6</v>
+      </c>
+      <c r="H54">
+        <v>2689.1</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>216.2</v>
+      </c>
+      <c r="K54">
+        <v>186.7</v>
+      </c>
+      <c r="L54">
+        <v>29.5</v>
+      </c>
+      <c r="M54">
+        <v>412.4439748</v>
+      </c>
+      <c r="N54">
+        <v>-382.9439748</v>
+      </c>
+      <c r="O54">
+        <v>-95.73599370000001</v>
+      </c>
+      <c r="P54">
+        <v>-287.2079811</v>
+      </c>
+      <c r="Q54">
+        <v>-100.5079811000001</v>
+      </c>
+      <c r="R54">
+        <v>1.083333333333333</v>
+      </c>
+      <c r="S54">
+        <v>0.107402782923092</v>
+      </c>
+      <c r="T54">
+        <v>1.921910699625798</v>
+      </c>
+      <c r="U54">
+        <v>0.1837</v>
+      </c>
+      <c r="V54">
+        <v>0.01788121648176881</v>
+      </c>
+      <c r="W54">
+        <v>0.1804152205322991</v>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y54">
+        <v>0.07152486592707519</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>0.53</v>
+      </c>
+      <c r="B55">
+        <v>0.1471132504798797</v>
+      </c>
+      <c r="C55">
+        <v>-414.0165109967288</v>
+      </c>
+      <c r="D55">
+        <v>1222.764489003271</v>
+      </c>
+      <c r="E55">
+        <v>659.7809999999999</v>
+      </c>
+      <c r="F55">
+        <v>2288.381</v>
+      </c>
+      <c r="G55">
+        <v>651.6</v>
+      </c>
+      <c r="H55">
+        <v>2689.1</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>216.2</v>
+      </c>
+      <c r="K55">
+        <v>186.7</v>
+      </c>
+      <c r="L55">
+        <v>29.5</v>
+      </c>
+      <c r="M55">
+        <v>420.3755897</v>
+      </c>
+      <c r="N55">
+        <v>-390.8755897</v>
+      </c>
+      <c r="O55">
+        <v>-97.71889742499999</v>
+      </c>
+      <c r="P55">
+        <v>-293.156692275</v>
+      </c>
+      <c r="Q55">
+        <v>-106.456692275</v>
+      </c>
+      <c r="R55">
+        <v>1.127659574468085</v>
+      </c>
+      <c r="S55">
+        <v>0.1094900761767748</v>
+      </c>
+      <c r="T55">
+        <v>1.962802416639113</v>
+      </c>
+      <c r="U55">
+        <v>0.1837</v>
+      </c>
+      <c r="V55">
+        <v>0.01754383503871657</v>
+      </c>
+      <c r="W55">
+        <v>0.1804771975033878</v>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y55">
+        <v>0.07017534015486626</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>0.54</v>
+      </c>
+      <c r="B56">
+        <v>0.1488572504798797</v>
+      </c>
+      <c r="C56">
+        <v>-472.4739873710405</v>
+      </c>
+      <c r="D56">
+        <v>1207.484012628959</v>
+      </c>
+      <c r="E56">
+        <v>702.9580000000001</v>
+      </c>
+      <c r="F56">
+        <v>2331.558</v>
+      </c>
+      <c r="G56">
+        <v>651.6</v>
+      </c>
+      <c r="H56">
+        <v>2689.1</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>216.2</v>
+      </c>
+      <c r="K56">
+        <v>186.7</v>
+      </c>
+      <c r="L56">
+        <v>29.5</v>
+      </c>
+      <c r="M56">
+        <v>428.3072046</v>
+      </c>
+      <c r="N56">
+        <v>-398.8072046</v>
+      </c>
+      <c r="O56">
+        <v>-99.70180114999999</v>
+      </c>
+      <c r="P56">
+        <v>-299.10540345</v>
+      </c>
+      <c r="Q56">
+        <v>-112.40540345</v>
+      </c>
+      <c r="R56">
+        <v>1.173913043478261</v>
+      </c>
+      <c r="S56">
+        <v>0.1116681213110525</v>
+      </c>
+      <c r="T56">
+        <v>2.005472034392138</v>
+      </c>
+      <c r="U56">
+        <v>0.1837</v>
+      </c>
+      <c r="V56">
+        <v>0.01721894920466626</v>
+      </c>
+      <c r="W56">
+        <v>0.1805368790311028</v>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y56">
+        <v>0.06887579681866507</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>0.55</v>
+      </c>
+      <c r="B57">
+        <v>0.1506012504798797</v>
+      </c>
+      <c r="C57">
+        <v>-530.5542674968224</v>
+      </c>
+      <c r="D57">
+        <v>1192.580732503178</v>
+      </c>
+      <c r="E57">
+        <v>746.1350000000002</v>
+      </c>
+      <c r="F57">
+        <v>2374.735</v>
+      </c>
+      <c r="G57">
+        <v>651.6</v>
+      </c>
+      <c r="H57">
+        <v>2689.1</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>216.2</v>
+      </c>
+      <c r="K57">
+        <v>186.7</v>
+      </c>
+      <c r="L57">
+        <v>29.5</v>
+      </c>
+      <c r="M57">
+        <v>436.2388195</v>
+      </c>
+      <c r="N57">
+        <v>-406.7388195</v>
+      </c>
+      <c r="O57">
+        <v>-101.684704875</v>
+      </c>
+      <c r="P57">
+        <v>-305.054114625</v>
+      </c>
+      <c r="Q57">
+        <v>-118.354114625</v>
+      </c>
+      <c r="R57">
+        <v>1.222222222222223</v>
+      </c>
+      <c r="S57">
+        <v>0.1139429684512981</v>
+      </c>
+      <c r="T57">
+        <v>2.050038079600851</v>
+      </c>
+      <c r="U57">
+        <v>0.1837</v>
+      </c>
+      <c r="V57">
+        <v>0.01690587740094505</v>
+      </c>
+      <c r="W57">
+        <v>0.1805943903214464</v>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y57">
+        <v>0.06762350960378027</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="B58">
+        <v>0.1523452504798797</v>
+      </c>
+      <c r="C58">
+        <v>-588.2711476431969</v>
+      </c>
+      <c r="D58">
+        <v>1178.040852356803</v>
+      </c>
+      <c r="E58">
+        <v>789.3120000000004</v>
+      </c>
+      <c r="F58">
+        <v>2417.912</v>
+      </c>
+      <c r="G58">
+        <v>651.6</v>
+      </c>
+      <c r="H58">
+        <v>2689.1</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>216.2</v>
+      </c>
+      <c r="K58">
+        <v>186.7</v>
+      </c>
+      <c r="L58">
+        <v>29.5</v>
+      </c>
+      <c r="M58">
+        <v>444.1704344</v>
+      </c>
+      <c r="N58">
+        <v>-414.6704344</v>
+      </c>
+      <c r="O58">
+        <v>-103.6676086</v>
+      </c>
+      <c r="P58">
+        <v>-311.0028258</v>
+      </c>
+      <c r="Q58">
+        <v>-124.3028258000001</v>
+      </c>
+      <c r="R58">
+        <v>1.272727272727273</v>
+      </c>
+      <c r="S58">
+        <v>0.1163212177342822</v>
+      </c>
+      <c r="T58">
+        <v>2.096629854137235</v>
+      </c>
+      <c r="U58">
+        <v>0.1837</v>
+      </c>
+      <c r="V58">
+        <v>0.01660398673307104</v>
+      </c>
+      <c r="W58">
+        <v>0.1806498476371348</v>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y58">
+        <v>0.06641594693228414</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="B59">
+        <v>0.1540892504798797</v>
+      </c>
+      <c r="C59">
+        <v>-645.6377593699026</v>
+      </c>
+      <c r="D59">
+        <v>1163.851240630097</v>
+      </c>
+      <c r="E59">
+        <v>832.489</v>
+      </c>
+      <c r="F59">
+        <v>2461.089</v>
+      </c>
+      <c r="G59">
+        <v>651.6</v>
+      </c>
+      <c r="H59">
+        <v>2689.1</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>216.2</v>
+      </c>
+      <c r="K59">
+        <v>186.7</v>
+      </c>
+      <c r="L59">
+        <v>29.5</v>
+      </c>
+      <c r="M59">
+        <v>452.1020493</v>
+      </c>
+      <c r="N59">
+        <v>-422.6020493</v>
+      </c>
+      <c r="O59">
+        <v>-105.650512325</v>
+      </c>
+      <c r="P59">
+        <v>-316.951536975</v>
+      </c>
+      <c r="Q59">
+        <v>-130.251536975</v>
+      </c>
+      <c r="R59">
+        <v>1.325581395348838</v>
+      </c>
+      <c r="S59">
+        <v>0.1188100832629864</v>
+      </c>
+      <c r="T59">
+        <v>2.14538868795438</v>
+      </c>
+      <c r="U59">
+        <v>0.1837</v>
+      </c>
+      <c r="V59">
+        <v>0.01631268872021014</v>
+      </c>
+      <c r="W59">
+        <v>0.1807033590820974</v>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y59">
+        <v>0.06525075488084053</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>0.58</v>
+      </c>
+      <c r="B60">
+        <v>0.1558332504798796</v>
+      </c>
+      <c r="C60">
+        <v>-702.6666090832719</v>
+      </c>
+      <c r="D60">
+        <v>1149.999390916728</v>
+      </c>
+      <c r="E60">
+        <v>875.6659999999997</v>
+      </c>
+      <c r="F60">
+        <v>2504.266</v>
+      </c>
+      <c r="G60">
+        <v>651.6</v>
+      </c>
+      <c r="H60">
+        <v>2689.1</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>216.2</v>
+      </c>
+      <c r="K60">
+        <v>186.7</v>
+      </c>
+      <c r="L60">
+        <v>29.5</v>
+      </c>
+      <c r="M60">
+        <v>460.0336641999999</v>
+      </c>
+      <c r="N60">
+        <v>-430.5336641999999</v>
+      </c>
+      <c r="O60">
+        <v>-107.63341605</v>
+      </c>
+      <c r="P60">
+        <v>-322.9002481499999</v>
+      </c>
+      <c r="Q60">
+        <v>-136.2002481499999</v>
+      </c>
+      <c r="R60">
+        <v>1.380952380952381</v>
+      </c>
+      <c r="S60">
+        <v>0.1214174661978194</v>
+      </c>
+      <c r="T60">
+        <v>2.196469371000912</v>
+      </c>
+      <c r="U60">
+        <v>0.1837</v>
+      </c>
+      <c r="V60">
+        <v>0.01603143546641342</v>
+      </c>
+      <c r="W60">
+        <v>0.1807550253048198</v>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y60">
+        <v>0.06412574186565367</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>0.59</v>
+      </c>
+      <c r="B61">
+        <v>0.1575772504798797</v>
+      </c>
+      <c r="C61">
+        <v>-759.3696148007234</v>
+      </c>
+      <c r="D61">
+        <v>1136.473385199276</v>
+      </c>
+      <c r="E61">
+        <v>918.8429999999998</v>
+      </c>
+      <c r="F61">
+        <v>2547.443</v>
+      </c>
+      <c r="G61">
+        <v>651.6</v>
+      </c>
+      <c r="H61">
+        <v>2689.1</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>216.2</v>
+      </c>
+      <c r="K61">
+        <v>186.7</v>
+      </c>
+      <c r="L61">
+        <v>29.5</v>
+      </c>
+      <c r="M61">
+        <v>467.9652791</v>
+      </c>
+      <c r="N61">
+        <v>-438.4652791</v>
+      </c>
+      <c r="O61">
+        <v>-109.616319775</v>
+      </c>
+      <c r="P61">
+        <v>-328.848959325</v>
+      </c>
+      <c r="Q61">
+        <v>-142.148959325</v>
+      </c>
+      <c r="R61">
+        <v>1.439024390243902</v>
+      </c>
+      <c r="S61">
+        <v>0.1241520385441077</v>
+      </c>
+      <c r="T61">
+        <v>2.250041794683861</v>
+      </c>
+      <c r="U61">
+        <v>0.1837</v>
+      </c>
+      <c r="V61">
+        <v>0.01575971622121997</v>
+      </c>
+      <c r="W61">
+        <v>0.1808049401301619</v>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y61">
+        <v>0.06303886488487986</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>0.6</v>
+      </c>
+      <c r="B62">
+        <v>0.1593212504798797</v>
+      </c>
+      <c r="C62">
+        <v>-815.7581403509212</v>
+      </c>
+      <c r="D62">
+        <v>1123.261859649079</v>
+      </c>
+      <c r="E62">
+        <v>962.02</v>
+      </c>
+      <c r="F62">
+        <v>2590.62</v>
+      </c>
+      <c r="G62">
+        <v>651.6</v>
+      </c>
+      <c r="H62">
+        <v>2689.1</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>216.2</v>
+      </c>
+      <c r="K62">
+        <v>186.7</v>
+      </c>
+      <c r="L62">
+        <v>29.5</v>
+      </c>
+      <c r="M62">
+        <v>475.896894</v>
+      </c>
+      <c r="N62">
+        <v>-446.396894</v>
+      </c>
+      <c r="O62">
+        <v>-111.5992235</v>
+      </c>
+      <c r="P62">
+        <v>-334.7976705</v>
+      </c>
+      <c r="Q62">
+        <v>-148.0976705</v>
+      </c>
+      <c r="R62">
+        <v>1.5</v>
+      </c>
+      <c r="S62">
+        <v>0.1270233395077103</v>
+      </c>
+      <c r="T62">
+        <v>2.306292839550958</v>
+      </c>
+      <c r="U62">
+        <v>0.1837</v>
+      </c>
+      <c r="V62">
+        <v>0.01549705428419964</v>
+      </c>
+      <c r="W62">
+        <v>0.1808531911279925</v>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y62">
+        <v>0.06198821713679858</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>0.61</v>
+      </c>
+      <c r="B63">
+        <v>0.1610652504798797</v>
+      </c>
+      <c r="C63">
+        <v>-871.8430272158907</v>
+      </c>
+      <c r="D63">
+        <v>1110.353972784109</v>
+      </c>
+      <c r="E63">
+        <v>1005.197</v>
+      </c>
+      <c r="F63">
+        <v>2633.797</v>
+      </c>
+      <c r="G63">
+        <v>651.6</v>
+      </c>
+      <c r="H63">
+        <v>2689.1</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>216.2</v>
+      </c>
+      <c r="K63">
+        <v>186.7</v>
+      </c>
+      <c r="L63">
+        <v>29.5</v>
+      </c>
+      <c r="M63">
+        <v>483.8285089</v>
+      </c>
+      <c r="N63">
+        <v>-454.3285089</v>
+      </c>
+      <c r="O63">
+        <v>-113.582127225</v>
+      </c>
+      <c r="P63">
+        <v>-340.746381675</v>
+      </c>
+      <c r="Q63">
+        <v>-154.046381675</v>
+      </c>
+      <c r="R63">
+        <v>1.564102564102564</v>
+      </c>
+      <c r="S63">
+        <v>0.1300418866745747</v>
+      </c>
+      <c r="T63">
+        <v>2.365428553385598</v>
+      </c>
+      <c r="U63">
+        <v>0.1837</v>
+      </c>
+      <c r="V63">
+        <v>0.01524300421396685</v>
+      </c>
+      <c r="W63">
+        <v>0.1808998601258943</v>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y63">
+        <v>0.06097201685586739</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>0.62</v>
+      </c>
+      <c r="B64">
+        <v>0.1628092504798797</v>
+      </c>
+      <c r="C64">
+        <v>-927.6346242025993</v>
+      </c>
+      <c r="D64">
+        <v>1097.7393757974</v>
+      </c>
+      <c r="E64">
+        <v>1048.374</v>
+      </c>
+      <c r="F64">
+        <v>2676.974</v>
+      </c>
+      <c r="G64">
+        <v>651.6</v>
+      </c>
+      <c r="H64">
+        <v>2689.1</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>216.2</v>
+      </c>
+      <c r="K64">
+        <v>186.7</v>
+      </c>
+      <c r="L64">
+        <v>29.5</v>
+      </c>
+      <c r="M64">
+        <v>491.7601238</v>
+      </c>
+      <c r="N64">
+        <v>-462.2601238</v>
+      </c>
+      <c r="O64">
+        <v>-115.56503095</v>
+      </c>
+      <c r="P64">
+        <v>-346.69509285</v>
+      </c>
+      <c r="Q64">
+        <v>-159.99509285</v>
+      </c>
+      <c r="R64">
+        <v>1.631578947368421</v>
+      </c>
+      <c r="S64">
+        <v>0.1332193047449583</v>
+      </c>
+      <c r="T64">
+        <v>2.427676673211535</v>
+      </c>
+      <c r="U64">
+        <v>0.1837</v>
+      </c>
+      <c r="V64">
+        <v>0.01499714930728997</v>
+      </c>
+      <c r="W64">
+        <v>0.1809450236722508</v>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y64">
+        <v>0.05998859722915983</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>0.63</v>
+      </c>
+      <c r="B65">
+        <v>0.1645532504798797</v>
+      </c>
+      <c r="C65">
+        <v>-983.1428151146947</v>
+      </c>
+      <c r="D65">
+        <v>1085.408184885305</v>
+      </c>
+      <c r="E65">
+        <v>1091.551</v>
+      </c>
+      <c r="F65">
+        <v>2720.151</v>
+      </c>
+      <c r="G65">
+        <v>651.6</v>
+      </c>
+      <c r="H65">
+        <v>2689.1</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>216.2</v>
+      </c>
+      <c r="K65">
+        <v>186.7</v>
+      </c>
+      <c r="L65">
+        <v>29.5</v>
+      </c>
+      <c r="M65">
+        <v>499.6917387</v>
+      </c>
+      <c r="N65">
+        <v>-470.1917387</v>
+      </c>
+      <c r="O65">
+        <v>-117.547934675</v>
+      </c>
+      <c r="P65">
+        <v>-352.643804025</v>
+      </c>
+      <c r="Q65">
+        <v>-165.943804025</v>
+      </c>
+      <c r="R65">
+        <v>1.702702702702703</v>
+      </c>
+      <c r="S65">
+        <v>0.1365684751434706</v>
+      </c>
+      <c r="T65">
+        <v>2.493289556271306</v>
+      </c>
+      <c r="U65">
+        <v>0.1837</v>
+      </c>
+      <c r="V65">
+        <v>0.01475909931828537</v>
+      </c>
+      <c r="W65">
+        <v>0.180988753455231</v>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y65">
+        <v>0.05903639727314147</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>0.64</v>
+      </c>
+      <c r="B66">
+        <v>0.1662972504798797</v>
+      </c>
+      <c r="C66">
+        <v>-1038.377044579885</v>
+      </c>
+      <c r="D66">
+        <v>1073.350955420115</v>
+      </c>
+      <c r="E66">
+        <v>1134.728</v>
+      </c>
+      <c r="F66">
+        <v>2763.328</v>
+      </c>
+      <c r="G66">
+        <v>651.6</v>
+      </c>
+      <c r="H66">
+        <v>2689.1</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>216.2</v>
+      </c>
+      <c r="K66">
+        <v>186.7</v>
+      </c>
+      <c r="L66">
+        <v>29.5</v>
+      </c>
+      <c r="M66">
+        <v>507.6233536</v>
+      </c>
+      <c r="N66">
+        <v>-478.1233536</v>
+      </c>
+      <c r="O66">
+        <v>-119.5308384</v>
+      </c>
+      <c r="P66">
+        <v>-358.5925152</v>
+      </c>
+      <c r="Q66">
+        <v>-171.8925152</v>
+      </c>
+      <c r="R66">
+        <v>1.777777777777778</v>
+      </c>
+      <c r="S66">
+        <v>0.1401037105641227</v>
+      </c>
+      <c r="T66">
+        <v>2.562547599501065</v>
+      </c>
+      <c r="U66">
+        <v>0.1837</v>
+      </c>
+      <c r="V66">
+        <v>0.01452848839143716</v>
+      </c>
+      <c r="W66">
+        <v>0.181031116682493</v>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y66">
+        <v>0.05811395356574867</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>0.65</v>
+      </c>
+      <c r="B67">
+        <v>0.1680412504798797</v>
+      </c>
+      <c r="C67">
+        <v>-1093.346342174832</v>
+      </c>
+      <c r="D67">
+        <v>1061.558657825168</v>
+      </c>
+      <c r="E67">
+        <v>1177.905</v>
+      </c>
+      <c r="F67">
+        <v>2806.505</v>
+      </c>
+      <c r="G67">
+        <v>651.6</v>
+      </c>
+      <c r="H67">
+        <v>2689.1</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>216.2</v>
+      </c>
+      <c r="K67">
+        <v>186.7</v>
+      </c>
+      <c r="L67">
+        <v>29.5</v>
+      </c>
+      <c r="M67">
+        <v>515.5549685</v>
+      </c>
+      <c r="N67">
+        <v>-486.0549685</v>
+      </c>
+      <c r="O67">
+        <v>-121.513742125</v>
+      </c>
+      <c r="P67">
+        <v>-364.541226375</v>
+      </c>
+      <c r="Q67">
+        <v>-177.841226375</v>
+      </c>
+      <c r="R67">
+        <v>1.857142857142857</v>
+      </c>
+      <c r="S67">
+        <v>0.1438409594373833</v>
+      </c>
+      <c r="T67">
+        <v>2.635763245201095</v>
+      </c>
+      <c r="U67">
+        <v>0.1837</v>
+      </c>
+      <c r="V67">
+        <v>0.01430497318541505</v>
+      </c>
+      <c r="W67">
+        <v>0.1810721764258393</v>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y67">
+        <v>0.05721989274166017</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>0.66</v>
+      </c>
+      <c r="B68">
+        <v>0.1697852504798797</v>
+      </c>
+      <c r="C68">
+        <v>-1148.059344977028</v>
+      </c>
+      <c r="D68">
+        <v>1050.022655022972</v>
+      </c>
+      <c r="E68">
+        <v>1221.082</v>
+      </c>
+      <c r="F68">
+        <v>2849.682</v>
+      </c>
+      <c r="G68">
+        <v>651.6</v>
+      </c>
+      <c r="H68">
+        <v>2689.1</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>216.2</v>
+      </c>
+      <c r="K68">
+        <v>186.7</v>
+      </c>
+      <c r="L68">
+        <v>29.5</v>
+      </c>
+      <c r="M68">
+        <v>523.4865834</v>
+      </c>
+      <c r="N68">
+        <v>-493.9865834</v>
+      </c>
+      <c r="O68">
+        <v>-123.49664585</v>
+      </c>
+      <c r="P68">
+        <v>-370.48993755</v>
+      </c>
+      <c r="Q68">
+        <v>-183.78993755</v>
+      </c>
+      <c r="R68">
+        <v>1.941176470588236</v>
+      </c>
+      <c r="S68">
+        <v>0.1477980464796592</v>
+      </c>
+      <c r="T68">
+        <v>2.713285693589362</v>
+      </c>
+      <c r="U68">
+        <v>0.1837</v>
+      </c>
+      <c r="V68">
+        <v>0.01408823116745422</v>
+      </c>
+      <c r="W68">
+        <v>0.1811119919345387</v>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y68">
+        <v>0.0563529246698169</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>0.67</v>
+      </c>
+      <c r="B69">
+        <v>0.1715292504798797</v>
+      </c>
+      <c r="C69">
+        <v>-1202.524318662065</v>
+      </c>
+      <c r="D69">
+        <v>1038.734681337935</v>
+      </c>
+      <c r="E69">
+        <v>1264.259</v>
+      </c>
+      <c r="F69">
+        <v>2892.859</v>
+      </c>
+      <c r="G69">
+        <v>651.6</v>
+      </c>
+      <c r="H69">
+        <v>2689.1</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>216.2</v>
+      </c>
+      <c r="K69">
+        <v>186.7</v>
+      </c>
+      <c r="L69">
+        <v>29.5</v>
+      </c>
+      <c r="M69">
+        <v>531.4181983</v>
+      </c>
+      <c r="N69">
+        <v>-501.9181983</v>
+      </c>
+      <c r="O69">
+        <v>-125.479549575</v>
+      </c>
+      <c r="P69">
+        <v>-376.438648725</v>
+      </c>
+      <c r="Q69">
+        <v>-189.738648725</v>
+      </c>
+      <c r="R69">
+        <v>2.030303030303031</v>
+      </c>
+      <c r="S69">
+        <v>0.1519949569790429</v>
+      </c>
+      <c r="T69">
+        <v>2.79550647218298</v>
+      </c>
+      <c r="U69">
+        <v>0.1837</v>
+      </c>
+      <c r="V69">
+        <v>0.01387795906047729</v>
+      </c>
+      <c r="W69">
+        <v>0.1811506189205903</v>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y69">
+        <v>0.05551183624190914</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>0.68</v>
+      </c>
+      <c r="B70">
+        <v>0.1732732504798797</v>
+      </c>
+      <c r="C70">
+        <v>-1256.74917725456</v>
+      </c>
+      <c r="D70">
+        <v>1027.686822745441</v>
+      </c>
+      <c r="E70">
+        <v>1307.436</v>
+      </c>
+      <c r="F70">
+        <v>2936.036</v>
+      </c>
+      <c r="G70">
+        <v>651.6</v>
+      </c>
+      <c r="H70">
+        <v>2689.1</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>216.2</v>
+      </c>
+      <c r="K70">
+        <v>186.7</v>
+      </c>
+      <c r="L70">
+        <v>29.5</v>
+      </c>
+      <c r="M70">
+        <v>539.3498132</v>
+      </c>
+      <c r="N70">
+        <v>-509.8498132</v>
+      </c>
+      <c r="O70">
+        <v>-127.4624533</v>
+      </c>
+      <c r="P70">
+        <v>-382.3873599</v>
+      </c>
+      <c r="Q70">
+        <v>-195.6873599</v>
+      </c>
+      <c r="R70">
+        <v>2.125</v>
+      </c>
+      <c r="S70">
+        <v>0.156454174384638</v>
+      </c>
+      <c r="T70">
+        <v>2.882866049438698</v>
+      </c>
+      <c r="U70">
+        <v>0.1837</v>
+      </c>
+      <c r="V70">
+        <v>0.01367387142723497</v>
+      </c>
+      <c r="W70">
+        <v>0.1811881098188169</v>
+      </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y70">
+        <v>0.05469548570893989</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>0.6900000000000001</v>
+      </c>
+      <c r="B71">
+        <v>0.1750172504798797</v>
+      </c>
+      <c r="C71">
+        <v>-1310.741501631943</v>
+      </c>
+      <c r="D71">
+        <v>1016.871498368057</v>
+      </c>
+      <c r="E71">
+        <v>1350.613</v>
+      </c>
+      <c r="F71">
+        <v>2979.213</v>
+      </c>
+      <c r="G71">
+        <v>651.6</v>
+      </c>
+      <c r="H71">
+        <v>2689.1</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>216.2</v>
+      </c>
+      <c r="K71">
+        <v>186.7</v>
+      </c>
+      <c r="L71">
+        <v>29.5</v>
+      </c>
+      <c r="M71">
+        <v>547.2814281000001</v>
+      </c>
+      <c r="N71">
+        <v>-517.7814281000001</v>
+      </c>
+      <c r="O71">
+        <v>-129.445357025</v>
+      </c>
+      <c r="P71">
+        <v>-388.3360710750001</v>
+      </c>
+      <c r="Q71">
+        <v>-201.6360710750001</v>
+      </c>
+      <c r="R71">
+        <v>2.225806451612904</v>
+      </c>
+      <c r="S71">
+        <v>0.1612010832357554</v>
+      </c>
+      <c r="T71">
+        <v>2.97586172845285</v>
+      </c>
+      <c r="U71">
+        <v>0.1837</v>
+      </c>
+      <c r="V71">
+        <v>0.0134756993775649</v>
+      </c>
+      <c r="W71">
+        <v>0.1812245140243413</v>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y71">
+        <v>0.05390279751025961</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="B72">
+        <v>0.1767612504798797</v>
+      </c>
+      <c r="C72">
+        <v>-1364.508556872018</v>
+      </c>
+      <c r="D72">
+        <v>1006.281443127983</v>
+      </c>
+      <c r="E72">
+        <v>1393.79</v>
+      </c>
+      <c r="F72">
+        <v>3022.39</v>
+      </c>
+      <c r="G72">
+        <v>651.6</v>
+      </c>
+      <c r="H72">
+        <v>2689.1</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>216.2</v>
+      </c>
+      <c r="K72">
+        <v>186.7</v>
+      </c>
+      <c r="L72">
+        <v>29.5</v>
+      </c>
+      <c r="M72">
+        <v>555.2130430000001</v>
+      </c>
+      <c r="N72">
+        <v>-525.7130430000001</v>
+      </c>
+      <c r="O72">
+        <v>-131.42826075</v>
+      </c>
+      <c r="P72">
+        <v>-394.28478225</v>
+      </c>
+      <c r="Q72">
+        <v>-207.58478225</v>
+      </c>
+      <c r="R72">
+        <v>2.333333333333334</v>
+      </c>
+      <c r="S72">
+        <v>0.1662644526769472</v>
+      </c>
+      <c r="T72">
+        <v>3.075057119401278</v>
+      </c>
+      <c r="U72">
+        <v>0.1837</v>
+      </c>
+      <c r="V72">
+        <v>0.01328318938645683</v>
+      </c>
+      <c r="W72">
+        <v>0.1812598781097079</v>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y72">
+        <v>0.05313275754582736</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>0.71</v>
+      </c>
+      <c r="B73">
+        <v>0.1785052504798797</v>
+      </c>
+      <c r="C73">
+        <v>-1418.057308527701</v>
+      </c>
+      <c r="D73">
+        <v>995.9096914722982</v>
+      </c>
+      <c r="E73">
+        <v>1436.967</v>
+      </c>
+      <c r="F73">
+        <v>3065.567</v>
+      </c>
+      <c r="G73">
+        <v>651.6</v>
+      </c>
+      <c r="H73">
+        <v>2689.1</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>216.2</v>
+      </c>
+      <c r="K73">
+        <v>186.7</v>
+      </c>
+      <c r="L73">
+        <v>29.5</v>
+      </c>
+      <c r="M73">
+        <v>563.1446579</v>
+      </c>
+      <c r="N73">
+        <v>-533.6446579</v>
+      </c>
+      <c r="O73">
+        <v>-133.411164475</v>
+      </c>
+      <c r="P73">
+        <v>-400.233493425</v>
+      </c>
+      <c r="Q73">
+        <v>-213.533493425</v>
+      </c>
+      <c r="R73">
+        <v>2.448275862068965</v>
+      </c>
+      <c r="S73">
+        <v>0.171677020010635</v>
+      </c>
+      <c r="T73">
+        <v>3.181093571794425</v>
+      </c>
+      <c r="U73">
+        <v>0.1837</v>
+      </c>
+      <c r="V73">
+        <v>0.01309610221199969</v>
+      </c>
+      <c r="W73">
+        <v>0.1812942460236557</v>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y73">
+        <v>0.05238440884799878</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>0.72</v>
+      </c>
+      <c r="B74">
+        <v>0.1802492504798797</v>
+      </c>
+      <c r="C74">
+        <v>-1471.394437905585</v>
+      </c>
+      <c r="D74">
+        <v>985.7495620944151</v>
+      </c>
+      <c r="E74">
+        <v>1480.144</v>
+      </c>
+      <c r="F74">
+        <v>3108.744</v>
+      </c>
+      <c r="G74">
+        <v>651.6</v>
+      </c>
+      <c r="H74">
+        <v>2689.1</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>216.2</v>
+      </c>
+      <c r="K74">
+        <v>186.7</v>
+      </c>
+      <c r="L74">
+        <v>29.5</v>
+      </c>
+      <c r="M74">
+        <v>571.0762728</v>
+      </c>
+      <c r="N74">
+        <v>-541.5762728</v>
+      </c>
+      <c r="O74">
+        <v>-135.3940682</v>
+      </c>
+      <c r="P74">
+        <v>-406.1822046</v>
+      </c>
+      <c r="Q74">
+        <v>-219.4822046</v>
+      </c>
+      <c r="R74">
+        <v>2.571428571428571</v>
+      </c>
+      <c r="S74">
+        <v>0.1774761992967291</v>
+      </c>
+      <c r="T74">
+        <v>3.294704056501368</v>
+      </c>
+      <c r="U74">
+        <v>0.1837</v>
+      </c>
+      <c r="V74">
+        <v>0.0129142119034997</v>
+      </c>
+      <c r="W74">
+        <v>0.1813276592733271</v>
+      </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y74">
+        <v>0.0516568476139988</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>0.73</v>
+      </c>
+      <c r="B75">
+        <v>0.1819932504798797</v>
+      </c>
+      <c r="C75">
+        <v>-1524.526356418703</v>
+      </c>
+      <c r="D75">
+        <v>975.794643581297</v>
+      </c>
+      <c r="E75">
+        <v>1523.321</v>
+      </c>
+      <c r="F75">
+        <v>3151.921</v>
+      </c>
+      <c r="G75">
+        <v>651.6</v>
+      </c>
+      <c r="H75">
+        <v>2689.1</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>216.2</v>
+      </c>
+      <c r="K75">
+        <v>186.7</v>
+      </c>
+      <c r="L75">
+        <v>29.5</v>
+      </c>
+      <c r="M75">
+        <v>579.0078877</v>
+      </c>
+      <c r="N75">
+        <v>-549.5078877</v>
+      </c>
+      <c r="O75">
+        <v>-137.376971925</v>
+      </c>
+      <c r="P75">
+        <v>-412.1309157749999</v>
+      </c>
+      <c r="Q75">
+        <v>-225.430915775</v>
+      </c>
+      <c r="R75">
+        <v>2.703703703703703</v>
+      </c>
+      <c r="S75">
+        <v>0.1837049474188301</v>
+      </c>
+      <c r="T75">
+        <v>3.416730132668085</v>
+      </c>
+      <c r="U75">
+        <v>0.1837</v>
+      </c>
+      <c r="V75">
+        <v>0.01273730489112299</v>
+      </c>
+      <c r="W75">
+        <v>0.1813601570915007</v>
+      </c>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y75">
+        <v>0.05094921956449194</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>0.74</v>
+      </c>
+      <c r="B76">
+        <v>0.1837372504798797</v>
+      </c>
+      <c r="C76">
+        <v>-1577.459219078336</v>
+      </c>
+      <c r="D76">
+        <v>966.0387809216643</v>
+      </c>
+      <c r="E76">
+        <v>1566.498</v>
+      </c>
+      <c r="F76">
+        <v>3195.098</v>
+      </c>
+      <c r="G76">
+        <v>651.6</v>
+      </c>
+      <c r="H76">
+        <v>2689.1</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>216.2</v>
+      </c>
+      <c r="K76">
+        <v>186.7</v>
+      </c>
+      <c r="L76">
+        <v>29.5</v>
+      </c>
+      <c r="M76">
+        <v>586.9395026</v>
+      </c>
+      <c r="N76">
+        <v>-557.4395026</v>
+      </c>
+      <c r="O76">
+        <v>-139.35987565</v>
+      </c>
+      <c r="P76">
+        <v>-418.07962695</v>
+      </c>
+      <c r="Q76">
+        <v>-231.37962695</v>
+      </c>
+      <c r="R76">
+        <v>2.846153846153846</v>
+      </c>
+      <c r="S76">
+        <v>0.1904128300118621</v>
+      </c>
+      <c r="T76">
+        <v>3.548142830078397</v>
+      </c>
+      <c r="U76">
+        <v>0.1837</v>
+      </c>
+      <c r="V76">
+        <v>0.01256517914935106</v>
+      </c>
+      <c r="W76">
+        <v>0.1813917765902642</v>
+      </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y76">
+        <v>0.05026071659740428</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>0.75</v>
+      </c>
+      <c r="B77">
+        <v>0.1854812504798797</v>
+      </c>
+      <c r="C77">
+        <v>-1630.198937184482</v>
+      </c>
+      <c r="D77">
+        <v>956.4760628155179</v>
+      </c>
+      <c r="E77">
+        <v>1609.675</v>
+      </c>
+      <c r="F77">
+        <v>3238.275</v>
+      </c>
+      <c r="G77">
+        <v>651.6</v>
+      </c>
+      <c r="H77">
+        <v>2689.1</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>216.2</v>
+      </c>
+      <c r="K77">
+        <v>186.7</v>
+      </c>
+      <c r="L77">
+        <v>29.5</v>
+      </c>
+      <c r="M77">
+        <v>594.8711175</v>
+      </c>
+      <c r="N77">
+        <v>-565.3711175</v>
+      </c>
+      <c r="O77">
+        <v>-141.342779375</v>
+      </c>
+      <c r="P77">
+        <v>-424.028338125</v>
+      </c>
+      <c r="Q77">
+        <v>-237.328338125</v>
+      </c>
+      <c r="R77">
+        <v>3</v>
+      </c>
+      <c r="S77">
+        <v>0.1976573432123366</v>
+      </c>
+      <c r="T77">
+        <v>3.690068543281533</v>
+      </c>
+      <c r="U77">
+        <v>0.1837</v>
+      </c>
+      <c r="V77">
+        <v>0.01239764342735971</v>
+      </c>
+      <c r="W77">
+        <v>0.181422552902394</v>
+      </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y77">
+        <v>0.04959057370943887</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>0.76</v>
+      </c>
+      <c r="B78">
+        <v>0.1872252504798797</v>
+      </c>
+      <c r="C78">
+        <v>-1682.751190269984</v>
+      </c>
+      <c r="D78">
+        <v>947.1008097300153</v>
+      </c>
+      <c r="E78">
+        <v>1652.852</v>
+      </c>
+      <c r="F78">
+        <v>3281.452</v>
+      </c>
+      <c r="G78">
+        <v>651.6</v>
+      </c>
+      <c r="H78">
+        <v>2689.1</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>216.2</v>
+      </c>
+      <c r="K78">
+        <v>186.7</v>
+      </c>
+      <c r="L78">
+        <v>29.5</v>
+      </c>
+      <c r="M78">
+        <v>602.8027324</v>
+      </c>
+      <c r="N78">
+        <v>-573.3027324</v>
+      </c>
+      <c r="O78">
+        <v>-143.3256831</v>
+      </c>
+      <c r="P78">
+        <v>-429.9770493</v>
+      </c>
+      <c r="Q78">
+        <v>-243.2770493</v>
+      </c>
+      <c r="R78">
+        <v>3.166666666666667</v>
+      </c>
+      <c r="S78">
+        <v>0.205505565846184</v>
+      </c>
+      <c r="T78">
+        <v>3.843821399251597</v>
+      </c>
+      <c r="U78">
+        <v>0.1837</v>
+      </c>
+      <c r="V78">
+        <v>0.01223451654015761</v>
+      </c>
+      <c r="W78">
+        <v>0.1814525193115731</v>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y78">
+        <v>0.04893806616063046</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>0.77</v>
+      </c>
+      <c r="B79">
+        <v>0.1889692504798797</v>
+      </c>
+      <c r="C79">
+        <v>-1735.121437349033</v>
+      </c>
+      <c r="D79">
+        <v>937.9075626509665</v>
+      </c>
+      <c r="E79">
+        <v>1696.029</v>
+      </c>
+      <c r="F79">
+        <v>3324.629</v>
+      </c>
+      <c r="G79">
+        <v>651.6</v>
+      </c>
+      <c r="H79">
+        <v>2689.1</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>216.2</v>
+      </c>
+      <c r="K79">
+        <v>186.7</v>
+      </c>
+      <c r="L79">
+        <v>29.5</v>
+      </c>
+      <c r="M79">
+        <v>610.7343473</v>
+      </c>
+      <c r="N79">
+        <v>-581.2343473</v>
+      </c>
+      <c r="O79">
+        <v>-145.308586825</v>
+      </c>
+      <c r="P79">
+        <v>-435.9257604749999</v>
+      </c>
+      <c r="Q79">
+        <v>-249.225760475</v>
+      </c>
+      <c r="R79">
+        <v>3.347826086956522</v>
+      </c>
+      <c r="S79">
+        <v>0.214036242622105</v>
+      </c>
+      <c r="T79">
+        <v>4.010944068784275</v>
+      </c>
+      <c r="U79">
+        <v>0.1837</v>
+      </c>
+      <c r="V79">
+        <v>0.01207562671496076</v>
+      </c>
+      <c r="W79">
+        <v>0.1814817073724617</v>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y79">
+        <v>0.04830250685984305</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>0.78</v>
+      </c>
+      <c r="B80">
+        <v>0.1907132504798796</v>
+      </c>
+      <c r="C80">
+        <v>-1787.314927516849</v>
+      </c>
+      <c r="D80">
+        <v>928.8910724831511</v>
+      </c>
+      <c r="E80">
+        <v>1739.206</v>
+      </c>
+      <c r="F80">
+        <v>3367.806</v>
+      </c>
+      <c r="G80">
+        <v>651.6</v>
+      </c>
+      <c r="H80">
+        <v>2689.1</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>216.2</v>
+      </c>
+      <c r="K80">
+        <v>186.7</v>
+      </c>
+      <c r="L80">
+        <v>29.5</v>
+      </c>
+      <c r="M80">
+        <v>618.6659622</v>
+      </c>
+      <c r="N80">
+        <v>-589.1659622</v>
+      </c>
+      <c r="O80">
+        <v>-147.29149055</v>
+      </c>
+      <c r="P80">
+        <v>-441.87447165</v>
+      </c>
+      <c r="Q80">
+        <v>-255.17447165</v>
+      </c>
+      <c r="R80">
+        <v>3.545454545454546</v>
+      </c>
+      <c r="S80">
+        <v>0.2233424354685643</v>
+      </c>
+      <c r="T80">
+        <v>4.193259708274469</v>
+      </c>
+      <c r="U80">
+        <v>0.1837</v>
+      </c>
+      <c r="V80">
+        <v>0.01192081098784587</v>
+      </c>
+      <c r="W80">
+        <v>0.1815101470215327</v>
+      </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y80">
+        <v>0.04768324395138346</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>0.79</v>
+      </c>
+      <c r="B81">
+        <v>0.1924572504798797</v>
+      </c>
+      <c r="C81">
+        <v>-1839.336709943787</v>
+      </c>
+      <c r="D81">
+        <v>920.0462900562134</v>
+      </c>
+      <c r="E81">
+        <v>1782.383</v>
+      </c>
+      <c r="F81">
+        <v>3410.983</v>
+      </c>
+      <c r="G81">
+        <v>651.6</v>
+      </c>
+      <c r="H81">
+        <v>2689.1</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>216.2</v>
+      </c>
+      <c r="K81">
+        <v>186.7</v>
+      </c>
+      <c r="L81">
+        <v>29.5</v>
+      </c>
+      <c r="M81">
+        <v>626.5975771000001</v>
+      </c>
+      <c r="N81">
+        <v>-597.0975771000001</v>
+      </c>
+      <c r="O81">
+        <v>-149.274394275</v>
+      </c>
+      <c r="P81">
+        <v>-447.8231828250001</v>
+      </c>
+      <c r="Q81">
+        <v>-261.1231828250001</v>
+      </c>
+      <c r="R81">
+        <v>3.761904761904763</v>
+      </c>
+      <c r="S81">
+        <v>0.2335349323956388</v>
+      </c>
+      <c r="T81">
+        <v>4.392938742001825</v>
+      </c>
+      <c r="U81">
+        <v>0.1837</v>
+      </c>
+      <c r="V81">
+        <v>0.01176991464622757</v>
+      </c>
+      <c r="W81">
+        <v>0.181537866679488</v>
+      </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y81">
+        <v>0.04707965858491026</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>0.8</v>
+      </c>
+      <c r="B82">
+        <v>0.1942012504798797</v>
+      </c>
+      <c r="C82">
+        <v>-1891.191643303857</v>
+      </c>
+      <c r="D82">
+        <v>911.3683566961429</v>
+      </c>
+      <c r="E82">
+        <v>1825.56</v>
+      </c>
+      <c r="F82">
+        <v>3454.16</v>
+      </c>
+      <c r="G82">
+        <v>651.6</v>
+      </c>
+      <c r="H82">
+        <v>2689.1</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>216.2</v>
+      </c>
+      <c r="K82">
+        <v>186.7</v>
+      </c>
+      <c r="L82">
+        <v>29.5</v>
+      </c>
+      <c r="M82">
+        <v>634.529192</v>
+      </c>
+      <c r="N82">
+        <v>-605.029192</v>
+      </c>
+      <c r="O82">
+        <v>-151.257298</v>
+      </c>
+      <c r="P82">
+        <v>-453.771894</v>
+      </c>
+      <c r="Q82">
+        <v>-267.071894</v>
+      </c>
+      <c r="R82">
+        <v>4.000000000000001</v>
+      </c>
+      <c r="S82">
+        <v>0.2447466790154207</v>
+      </c>
+      <c r="T82">
+        <v>4.612585679101916</v>
+      </c>
+      <c r="U82">
+        <v>0.1837</v>
+      </c>
+      <c r="V82">
+        <v>0.01162279071314973</v>
+      </c>
+      <c r="W82">
+        <v>0.1815648933459944</v>
+      </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y82">
+        <v>0.04649116285259891</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="B83">
+        <v>0.1959452504798797</v>
+      </c>
+      <c r="C83">
+        <v>-1942.884404674648</v>
+      </c>
+      <c r="D83">
+        <v>902.8525953253524</v>
+      </c>
+      <c r="E83">
+        <v>1868.737</v>
+      </c>
+      <c r="F83">
+        <v>3497.337</v>
+      </c>
+      <c r="G83">
+        <v>651.6</v>
+      </c>
+      <c r="H83">
+        <v>2689.1</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>216.2</v>
+      </c>
+      <c r="K83">
+        <v>186.7</v>
+      </c>
+      <c r="L83">
+        <v>29.5</v>
+      </c>
+      <c r="M83">
+        <v>642.4608069</v>
+      </c>
+      <c r="N83">
+        <v>-612.9608069</v>
+      </c>
+      <c r="O83">
+        <v>-153.240201725</v>
+      </c>
+      <c r="P83">
+        <v>-459.7206051749999</v>
+      </c>
+      <c r="Q83">
+        <v>-273.020605175</v>
+      </c>
+      <c r="R83">
+        <v>4.263157894736843</v>
+      </c>
+      <c r="S83">
+        <v>0.2571386094899166</v>
+      </c>
+      <c r="T83">
+        <v>4.855353346423071</v>
+      </c>
+      <c r="U83">
+        <v>0.1837</v>
+      </c>
+      <c r="V83">
+        <v>0.01147929946977751</v>
+      </c>
+      <c r="W83">
+        <v>0.1815912526874019</v>
+      </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y83">
+        <v>0.04591719787911008</v>
+      </c>
+      <c r="Z83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="B84">
+        <v>0.1976892504798797</v>
+      </c>
+      <c r="C84">
+        <v>-1994.419497942902</v>
+      </c>
+      <c r="D84">
+        <v>894.4945020570982</v>
+      </c>
+      <c r="E84">
+        <v>1911.914</v>
+      </c>
+      <c r="F84">
+        <v>3540.514</v>
+      </c>
+      <c r="G84">
+        <v>651.6</v>
+      </c>
+      <c r="H84">
+        <v>2689.1</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>216.2</v>
+      </c>
+      <c r="K84">
+        <v>186.7</v>
+      </c>
+      <c r="L84">
+        <v>29.5</v>
+      </c>
+      <c r="M84">
+        <v>650.3924218000001</v>
+      </c>
+      <c r="N84">
+        <v>-620.8924218000001</v>
+      </c>
+      <c r="O84">
+        <v>-155.22310545</v>
+      </c>
+      <c r="P84">
+        <v>-465.66931635</v>
+      </c>
+      <c r="Q84">
+        <v>-278.96931635</v>
+      </c>
+      <c r="R84">
+        <v>4.555555555555557</v>
+      </c>
+      <c r="S84">
+        <v>0.2709074211282453</v>
+      </c>
+      <c r="T84">
+        <v>5.12509519900213</v>
+      </c>
+      <c r="U84">
+        <v>0.1837</v>
+      </c>
+      <c r="V84">
+        <v>0.011339308012829</v>
+      </c>
+      <c r="W84">
+        <v>0.1816169691180433</v>
+      </c>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y84">
+        <v>0.04535723205131603</v>
+      </c>
+      <c r="Z84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>0.8300000000000001</v>
+      </c>
+      <c r="B85">
+        <v>0.1994332504798797</v>
+      </c>
+      <c r="C85">
+        <v>-2045.801261747499</v>
+      </c>
+      <c r="D85">
+        <v>886.2897382525014</v>
+      </c>
+      <c r="E85">
+        <v>1955.091</v>
+      </c>
+      <c r="F85">
+        <v>3583.691</v>
+      </c>
+      <c r="G85">
+        <v>651.6</v>
+      </c>
+      <c r="H85">
+        <v>2689.1</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>216.2</v>
+      </c>
+      <c r="K85">
+        <v>186.7</v>
+      </c>
+      <c r="L85">
+        <v>29.5</v>
+      </c>
+      <c r="M85">
+        <v>658.3240367000001</v>
+      </c>
+      <c r="N85">
+        <v>-628.8240367000001</v>
+      </c>
+      <c r="O85">
+        <v>-157.206009175</v>
+      </c>
+      <c r="P85">
+        <v>-471.6180275250001</v>
+      </c>
+      <c r="Q85">
+        <v>-284.9180275250001</v>
+      </c>
+      <c r="R85">
+        <v>4.882352941176473</v>
+      </c>
+      <c r="S85">
+        <v>0.2862960929593186</v>
+      </c>
+      <c r="T85">
+        <v>5.426571387178726</v>
+      </c>
+      <c r="U85">
+        <v>0.1837</v>
+      </c>
+      <c r="V85">
+        <v>0.01120268984399973</v>
+      </c>
+      <c r="W85">
+        <v>0.1816420658756573</v>
+      </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y85">
+        <v>0.04481075937599899</v>
+      </c>
+      <c r="Z85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>0.84</v>
+      </c>
+      <c r="B86">
+        <v>0.2011772504798797</v>
+      </c>
+      <c r="C86">
+        <v>-2097.033876989256</v>
+      </c>
+      <c r="D86">
+        <v>878.2341230107439</v>
+      </c>
+      <c r="E86">
+        <v>1998.268</v>
+      </c>
+      <c r="F86">
+        <v>3626.868</v>
+      </c>
+      <c r="G86">
+        <v>651.6</v>
+      </c>
+      <c r="H86">
+        <v>2689.1</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>216.2</v>
+      </c>
+      <c r="K86">
+        <v>186.7</v>
+      </c>
+      <c r="L86">
+        <v>29.5</v>
+      </c>
+      <c r="M86">
+        <v>666.2556516</v>
+      </c>
+      <c r="N86">
+        <v>-636.7556516</v>
+      </c>
+      <c r="O86">
+        <v>-159.1889129</v>
+      </c>
+      <c r="P86">
+        <v>-477.5667387</v>
+      </c>
+      <c r="Q86">
+        <v>-290.8667387</v>
+      </c>
+      <c r="R86">
+        <v>5.249999999999999</v>
+      </c>
+      <c r="S86">
+        <v>0.3036083487692758</v>
+      </c>
+      <c r="T86">
+        <v>5.765732098877394</v>
+      </c>
+      <c r="U86">
+        <v>0.1837</v>
+      </c>
+      <c r="V86">
+        <v>0.01106932448871403</v>
+      </c>
+      <c r="W86">
+        <v>0.1816665650914232</v>
+      </c>
+      <c r="X86" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y86">
+        <v>0.04427729795485613</v>
+      </c>
+      <c r="Z86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>0.85</v>
+      </c>
+      <c r="B87">
+        <v>0.2029212504798797</v>
+      </c>
+      <c r="C87">
+        <v>-2148.121373934889</v>
+      </c>
+      <c r="D87">
+        <v>870.3236260651104</v>
+      </c>
+      <c r="E87">
+        <v>2041.445</v>
+      </c>
+      <c r="F87">
+        <v>3670.045</v>
+      </c>
+      <c r="G87">
+        <v>651.6</v>
+      </c>
+      <c r="H87">
+        <v>2689.1</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>216.2</v>
+      </c>
+      <c r="K87">
+        <v>186.7</v>
+      </c>
+      <c r="L87">
+        <v>29.5</v>
+      </c>
+      <c r="M87">
+        <v>674.1872665</v>
+      </c>
+      <c r="N87">
+        <v>-644.6872665</v>
+      </c>
+      <c r="O87">
+        <v>-161.171816625</v>
+      </c>
+      <c r="P87">
+        <v>-483.5154498749999</v>
+      </c>
+      <c r="Q87">
+        <v>-296.815449875</v>
+      </c>
+      <c r="R87">
+        <v>5.666666666666666</v>
+      </c>
+      <c r="S87">
+        <v>0.3232289053538943</v>
+      </c>
+      <c r="T87">
+        <v>6.150114238802554</v>
+      </c>
+      <c r="U87">
+        <v>0.1837</v>
+      </c>
+      <c r="V87">
+        <v>0.01093909714178798</v>
+      </c>
+      <c r="W87">
+        <v>0.1816904878550535</v>
+      </c>
+      <c r="X87" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y87">
+        <v>0.04375638856715192</v>
+      </c>
+      <c r="Z87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>0.86</v>
+      </c>
+      <c r="B88">
+        <v>0.2046652504798796</v>
+      </c>
+      <c r="C88">
+        <v>-2199.067638940458</v>
+      </c>
+      <c r="D88">
+        <v>862.5543610595413</v>
+      </c>
+      <c r="E88">
+        <v>2084.622</v>
+      </c>
+      <c r="F88">
+        <v>3713.222</v>
+      </c>
+      <c r="G88">
+        <v>651.6</v>
+      </c>
+      <c r="H88">
+        <v>2689.1</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>216.2</v>
+      </c>
+      <c r="K88">
+        <v>186.7</v>
+      </c>
+      <c r="L88">
+        <v>29.5</v>
+      </c>
+      <c r="M88">
+        <v>682.1188814</v>
+      </c>
+      <c r="N88">
+        <v>-652.6188814</v>
+      </c>
+      <c r="O88">
+        <v>-163.15472035</v>
+      </c>
+      <c r="P88">
+        <v>-489.46416105</v>
+      </c>
+      <c r="Q88">
+        <v>-302.76416105</v>
+      </c>
+      <c r="R88">
+        <v>6.142857142857142</v>
+      </c>
+      <c r="S88">
+        <v>0.3456523985934581</v>
+      </c>
+      <c r="T88">
+        <v>6.589408113002737</v>
+      </c>
+      <c r="U88">
+        <v>0.1837</v>
+      </c>
+      <c r="V88">
+        <v>0.0108118983378137</v>
+      </c>
+      <c r="W88">
+        <v>0.1817138542753436</v>
+      </c>
+      <c r="X88" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y88">
+        <v>0.04324759335125483</v>
+      </c>
+      <c r="Z88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>0.87</v>
+      </c>
+      <c r="B89">
+        <v>0.2064092504798796</v>
+      </c>
+      <c r="C89">
+        <v>-2249.876420817896</v>
+      </c>
+      <c r="D89">
+        <v>854.9225791821033</v>
+      </c>
+      <c r="E89">
+        <v>2127.799</v>
+      </c>
+      <c r="F89">
+        <v>3756.399</v>
+      </c>
+      <c r="G89">
+        <v>651.6</v>
+      </c>
+      <c r="H89">
+        <v>2689.1</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>216.2</v>
+      </c>
+      <c r="K89">
+        <v>186.7</v>
+      </c>
+      <c r="L89">
+        <v>29.5</v>
+      </c>
+      <c r="M89">
+        <v>690.0504963</v>
+      </c>
+      <c r="N89">
+        <v>-660.5504963</v>
+      </c>
+      <c r="O89">
+        <v>-165.137624075</v>
+      </c>
+      <c r="P89">
+        <v>-495.412872225</v>
+      </c>
+      <c r="Q89">
+        <v>-308.712872225</v>
+      </c>
+      <c r="R89">
+        <v>6.692307692307692</v>
+      </c>
+      <c r="S89">
+        <v>0.3715256600237241</v>
+      </c>
+      <c r="T89">
+        <v>7.096285660156792</v>
+      </c>
+      <c r="U89">
+        <v>0.1837</v>
+      </c>
+      <c r="V89">
+        <v>0.01068762364427561</v>
+      </c>
+      <c r="W89">
+        <v>0.1817366835365466</v>
+      </c>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y89">
+        <v>0.04275049457710245</v>
+      </c>
+      <c r="Z89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>0.88</v>
+      </c>
+      <c r="B90">
+        <v>0.2081532504798797</v>
+      </c>
+      <c r="C90">
+        <v>-2300.551336866519</v>
+      </c>
+      <c r="D90">
+        <v>847.4246631334814</v>
+      </c>
+      <c r="E90">
+        <v>2170.976</v>
+      </c>
+      <c r="F90">
+        <v>3799.576</v>
+      </c>
+      <c r="G90">
+        <v>651.6</v>
+      </c>
+      <c r="H90">
+        <v>2689.1</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>216.2</v>
+      </c>
+      <c r="K90">
+        <v>186.7</v>
+      </c>
+      <c r="L90">
+        <v>29.5</v>
+      </c>
+      <c r="M90">
+        <v>697.9821112</v>
+      </c>
+      <c r="N90">
+        <v>-668.4821112</v>
+      </c>
+      <c r="O90">
+        <v>-167.1205278</v>
+      </c>
+      <c r="P90">
+        <v>-501.3615834</v>
+      </c>
+      <c r="Q90">
+        <v>-314.6615834</v>
+      </c>
+      <c r="R90">
+        <v>7.333333333333334</v>
+      </c>
+      <c r="S90">
+        <v>0.4017111316923679</v>
+      </c>
+      <c r="T90">
+        <v>7.687642798503194</v>
+      </c>
+      <c r="U90">
+        <v>0.1837</v>
+      </c>
+      <c r="V90">
+        <v>0.01056617337559066</v>
+      </c>
+      <c r="W90">
+        <v>0.181758993950904</v>
+      </c>
+      <c r="X90" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y90">
+        <v>0.04226469350236262</v>
+      </c>
+      <c r="Z90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>0.89</v>
+      </c>
+      <c r="B91">
+        <v>0.2098972504798797</v>
+      </c>
+      <c r="C91">
+        <v>-2351.095878589893</v>
+      </c>
+      <c r="D91">
+        <v>840.057121410107</v>
+      </c>
+      <c r="E91">
+        <v>2214.153</v>
+      </c>
+      <c r="F91">
+        <v>3842.753</v>
+      </c>
+      <c r="G91">
+        <v>651.6</v>
+      </c>
+      <c r="H91">
+        <v>2689.1</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>216.2</v>
+      </c>
+      <c r="K91">
+        <v>186.7</v>
+      </c>
+      <c r="L91">
+        <v>29.5</v>
+      </c>
+      <c r="M91">
+        <v>705.9137261</v>
+      </c>
+      <c r="N91">
+        <v>-676.4137261</v>
+      </c>
+      <c r="O91">
+        <v>-169.103431525</v>
+      </c>
+      <c r="P91">
+        <v>-507.3102945749999</v>
+      </c>
+      <c r="Q91">
+        <v>-320.610294575</v>
+      </c>
+      <c r="R91">
+        <v>8.090909090909092</v>
+      </c>
+      <c r="S91">
+        <v>0.4373848709371286</v>
+      </c>
+      <c r="T91">
+        <v>8.386519416548939</v>
+      </c>
+      <c r="U91">
+        <v>0.1837</v>
+      </c>
+      <c r="V91">
+        <v>0.01044745232642672</v>
+      </c>
+      <c r="W91">
+        <v>0.1817808030076354</v>
+      </c>
+      <c r="X91" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y91">
+        <v>0.04178980930570686</v>
+      </c>
+      <c r="Z91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>0.9</v>
+      </c>
+      <c r="B92">
+        <v>0.2116412504798796</v>
+      </c>
+      <c r="C92">
+        <v>-2401.513417117082</v>
+      </c>
+      <c r="D92">
+        <v>832.8165828829177</v>
+      </c>
+      <c r="E92">
+        <v>2257.33</v>
+      </c>
+      <c r="F92">
+        <v>3885.93</v>
+      </c>
+      <c r="G92">
+        <v>651.6</v>
+      </c>
+      <c r="H92">
+        <v>2689.1</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>216.2</v>
+      </c>
+      <c r="K92">
+        <v>186.7</v>
+      </c>
+      <c r="L92">
+        <v>29.5</v>
+      </c>
+      <c r="M92">
+        <v>713.845341</v>
+      </c>
+      <c r="N92">
+        <v>-684.345341</v>
+      </c>
+      <c r="O92">
+        <v>-171.08633525</v>
+      </c>
+      <c r="P92">
+        <v>-513.2590057499999</v>
+      </c>
+      <c r="Q92">
+        <v>-326.5590057499999</v>
+      </c>
+      <c r="R92">
+        <v>9.000000000000002</v>
+      </c>
+      <c r="S92">
+        <v>0.4801933580308415</v>
+      </c>
+      <c r="T92">
+        <v>9.225171358203832</v>
+      </c>
+      <c r="U92">
+        <v>0.1837</v>
+      </c>
+      <c r="V92">
+        <v>0.01033136952279976</v>
+      </c>
+      <c r="W92">
+        <v>0.1818021274186617</v>
+      </c>
+      <c r="X92" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y92">
+        <v>0.04132547809119902</v>
+      </c>
+      <c r="Z92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>0.91</v>
+      </c>
+      <c r="B93">
+        <v>0.2133852504798797</v>
+      </c>
+      <c r="C93">
+        <v>-2451.807208345907</v>
+      </c>
+      <c r="D93">
+        <v>825.6997916540926</v>
+      </c>
+      <c r="E93">
+        <v>2300.507</v>
+      </c>
+      <c r="F93">
+        <v>3929.107</v>
+      </c>
+      <c r="G93">
+        <v>651.6</v>
+      </c>
+      <c r="H93">
+        <v>2689.1</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>216.2</v>
+      </c>
+      <c r="K93">
+        <v>186.7</v>
+      </c>
+      <c r="L93">
+        <v>29.5</v>
+      </c>
+      <c r="M93">
+        <v>721.7769559</v>
+      </c>
+      <c r="N93">
+        <v>-692.2769559</v>
+      </c>
+      <c r="O93">
+        <v>-173.069238975</v>
+      </c>
+      <c r="P93">
+        <v>-519.207716925</v>
+      </c>
+      <c r="Q93">
+        <v>-332.507716925</v>
+      </c>
+      <c r="R93">
+        <v>10.11111111111111</v>
+      </c>
+      <c r="S93">
+        <v>0.5325148422564906</v>
+      </c>
+      <c r="T93">
+        <v>10.25019039800426</v>
+      </c>
+      <c r="U93">
+        <v>0.1837</v>
+      </c>
+      <c r="V93">
+        <v>0.01021783798958218</v>
+      </c>
+      <c r="W93">
+        <v>0.1818229831613138</v>
+      </c>
+      <c r="X93" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y93">
+        <v>0.04087135195832869</v>
+      </c>
+      <c r="Z93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>0.92</v>
+      </c>
+      <c r="B94">
+        <v>0.2151292504798797</v>
+      </c>
+      <c r="C94">
+        <v>-2501.980397824747</v>
+      </c>
+      <c r="D94">
+        <v>818.7036021752532</v>
+      </c>
+      <c r="E94">
+        <v>2343.684</v>
+      </c>
+      <c r="F94">
+        <v>3972.284</v>
+      </c>
+      <c r="G94">
+        <v>651.6</v>
+      </c>
+      <c r="H94">
+        <v>2689.1</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>216.2</v>
+      </c>
+      <c r="K94">
+        <v>186.7</v>
+      </c>
+      <c r="L94">
+        <v>29.5</v>
+      </c>
+      <c r="M94">
+        <v>729.7085708000001</v>
+      </c>
+      <c r="N94">
+        <v>-700.2085708000001</v>
+      </c>
+      <c r="O94">
+        <v>-175.0521427</v>
+      </c>
+      <c r="P94">
+        <v>-525.1564281000001</v>
+      </c>
+      <c r="Q94">
+        <v>-338.4564281000001</v>
+      </c>
+      <c r="R94">
+        <v>11.50000000000001</v>
+      </c>
+      <c r="S94">
+        <v>0.5979166975385521</v>
+      </c>
+      <c r="T94">
+        <v>11.5314641977548</v>
+      </c>
+      <c r="U94">
+        <v>0.1837</v>
+      </c>
+      <c r="V94">
+        <v>0.01010677453317367</v>
+      </c>
+      <c r="W94">
+        <v>0.181843385518256</v>
+      </c>
+      <c r="X94" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y94">
+        <v>0.04042709813269474</v>
+      </c>
+      <c r="Z94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>0.93</v>
+      </c>
+      <c r="B95">
+        <v>0.2168732504798797</v>
+      </c>
+      <c r="C95">
+        <v>-2552.036025388235</v>
+      </c>
+      <c r="D95">
+        <v>811.8249746117648</v>
+      </c>
+      <c r="E95">
+        <v>2386.861</v>
+      </c>
+      <c r="F95">
+        <v>4015.461</v>
+      </c>
+      <c r="G95">
+        <v>651.6</v>
+      </c>
+      <c r="H95">
+        <v>2689.1</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>216.2</v>
+      </c>
+      <c r="K95">
+        <v>186.7</v>
+      </c>
+      <c r="L95">
+        <v>29.5</v>
+      </c>
+      <c r="M95">
+        <v>737.6401857000001</v>
+      </c>
+      <c r="N95">
+        <v>-708.1401857000001</v>
+      </c>
+      <c r="O95">
+        <v>-177.035046425</v>
+      </c>
+      <c r="P95">
+        <v>-531.1051392750001</v>
+      </c>
+      <c r="Q95">
+        <v>-344.4051392750001</v>
+      </c>
+      <c r="R95">
+        <v>13.2857142857143</v>
+      </c>
+      <c r="S95">
+        <v>0.6820047971869169</v>
+      </c>
+      <c r="T95">
+        <v>13.17881622600548</v>
+      </c>
+      <c r="U95">
+        <v>0.1837</v>
+      </c>
+      <c r="V95">
+        <v>0.009998099538193313</v>
+      </c>
+      <c r="W95">
+        <v>0.1818633491148339</v>
+      </c>
+      <c r="X95" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y95">
+        <v>0.03999239815277322</v>
+      </c>
+      <c r="Z95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>0.9400000000000001</v>
+      </c>
+      <c r="B96">
+        <v>0.2186172504798797</v>
+      </c>
+      <c r="C96">
+        <v>-2601.977029561216</v>
+      </c>
+      <c r="D96">
+        <v>805.0609704387839</v>
+      </c>
+      <c r="E96">
+        <v>2430.038</v>
+      </c>
+      <c r="F96">
+        <v>4058.638</v>
+      </c>
+      <c r="G96">
+        <v>651.6</v>
+      </c>
+      <c r="H96">
+        <v>2689.1</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>216.2</v>
+      </c>
+      <c r="K96">
+        <v>186.7</v>
+      </c>
+      <c r="L96">
+        <v>29.5</v>
+      </c>
+      <c r="M96">
+        <v>745.5718006</v>
+      </c>
+      <c r="N96">
+        <v>-716.0718006</v>
+      </c>
+      <c r="O96">
+        <v>-179.01795015</v>
+      </c>
+      <c r="P96">
+        <v>-537.05385045</v>
+      </c>
+      <c r="Q96">
+        <v>-350.35385045</v>
+      </c>
+      <c r="R96">
+        <v>15.66666666666668</v>
+      </c>
+      <c r="S96">
+        <v>0.7941222633847365</v>
+      </c>
+      <c r="T96">
+        <v>15.3752855970064</v>
+      </c>
+      <c r="U96">
+        <v>0.1837</v>
+      </c>
+      <c r="V96">
+        <v>0.009891736777148705</v>
+      </c>
+      <c r="W96">
+        <v>0.1818828879540378</v>
+      </c>
+      <c r="X96" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y96">
+        <v>0.03956694710859476</v>
+      </c>
+      <c r="Z96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="B97">
+        <v>0.2203612504798797</v>
+      </c>
+      <c r="C97">
+        <v>-2651.806251744365</v>
+      </c>
+      <c r="D97">
+        <v>798.4087482556351</v>
+      </c>
+      <c r="E97">
+        <v>2473.215000000001</v>
+      </c>
+      <c r="F97">
+        <v>4101.815000000001</v>
+      </c>
+      <c r="G97">
+        <v>651.6</v>
+      </c>
+      <c r="H97">
+        <v>2689.1</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>216.2</v>
+      </c>
+      <c r="K97">
+        <v>186.7</v>
+      </c>
+      <c r="L97">
+        <v>29.5</v>
+      </c>
+      <c r="M97">
+        <v>753.5034155000001</v>
+      </c>
+      <c r="N97">
+        <v>-724.0034155000001</v>
+      </c>
+      <c r="O97">
+        <v>-181.000853875</v>
+      </c>
+      <c r="P97">
+        <v>-543.002561625</v>
+      </c>
+      <c r="Q97">
+        <v>-356.302561625</v>
+      </c>
+      <c r="R97">
+        <v>19.00000000000003</v>
+      </c>
+      <c r="S97">
+        <v>0.9510867160616844</v>
+      </c>
+      <c r="T97">
+        <v>18.45034271640769</v>
+      </c>
+      <c r="U97">
+        <v>0.1837</v>
+      </c>
+      <c r="V97">
+        <v>0.009787613232126085</v>
+      </c>
+      <c r="W97">
+        <v>0.1819020154492584</v>
+      </c>
+      <c r="X97" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y97">
+        <v>0.03915045292850439</v>
+      </c>
+      <c r="Z97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>0.96</v>
+      </c>
+      <c r="B98">
+        <v>0.2221052504798797</v>
+      </c>
+      <c r="C98">
+        <v>-2701.52644019398</v>
+      </c>
+      <c r="D98">
+        <v>791.8655598060187</v>
+      </c>
+      <c r="E98">
+        <v>2516.391999999999</v>
+      </c>
+      <c r="F98">
+        <v>4144.991999999999</v>
+      </c>
+      <c r="G98">
+        <v>651.6</v>
+      </c>
+      <c r="H98">
+        <v>2689.1</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>216.2</v>
+      </c>
+      <c r="K98">
+        <v>186.7</v>
+      </c>
+      <c r="L98">
+        <v>29.5</v>
+      </c>
+      <c r="M98">
+        <v>761.4350303999998</v>
+      </c>
+      <c r="N98">
+        <v>-731.9350303999998</v>
+      </c>
+      <c r="O98">
+        <v>-182.9837576</v>
+      </c>
+      <c r="P98">
+        <v>-548.9512727999999</v>
+      </c>
+      <c r="Q98">
+        <v>-362.2512727999999</v>
+      </c>
+      <c r="R98">
+        <v>23.99999999999998</v>
+      </c>
+      <c r="S98">
+        <v>1.186533395077103</v>
+      </c>
+      <c r="T98">
+        <v>23.06292839550956</v>
+      </c>
+      <c r="U98">
+        <v>0.1837</v>
+      </c>
+      <c r="V98">
+        <v>0.009685658927624774</v>
+      </c>
+      <c r="W98">
+        <v>0.1819207444549953</v>
+      </c>
+      <c r="X98" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y98">
+        <v>0.03874263571049907</v>
+      </c>
+      <c r="Z98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>0.97</v>
+      </c>
+      <c r="B99">
+        <v>0.2238492504798796</v>
+      </c>
+      <c r="C99">
+        <v>-2751.140253807698</v>
+      </c>
+      <c r="D99">
+        <v>785.4287461923014</v>
+      </c>
+      <c r="E99">
+        <v>2559.569</v>
+      </c>
+      <c r="F99">
+        <v>4188.169</v>
+      </c>
+      <c r="G99">
+        <v>651.6</v>
+      </c>
+      <c r="H99">
+        <v>2689.1</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>216.2</v>
+      </c>
+      <c r="K99">
+        <v>186.7</v>
+      </c>
+      <c r="L99">
+        <v>29.5</v>
+      </c>
+      <c r="M99">
+        <v>769.3666453</v>
+      </c>
+      <c r="N99">
+        <v>-739.8666453</v>
+      </c>
+      <c r="O99">
+        <v>-184.966661325</v>
+      </c>
+      <c r="P99">
+        <v>-554.8999839749999</v>
+      </c>
+      <c r="Q99">
+        <v>-368.199983975</v>
+      </c>
+      <c r="R99">
+        <v>32.33333333333331</v>
+      </c>
+      <c r="S99">
+        <v>1.57894452676947</v>
+      </c>
+      <c r="T99">
+        <v>30.75057119401275</v>
+      </c>
+      <c r="U99">
+        <v>0.1837</v>
+      </c>
+      <c r="V99">
+        <v>0.009585806773731734</v>
+      </c>
+      <c r="W99">
+        <v>0.1819390872956655</v>
+      </c>
+      <c r="X99" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y99">
+        <v>0.03834322709492699</v>
+      </c>
+      <c r="Z99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>0.98</v>
+      </c>
+      <c r="B100">
+        <v>0.2255932504798797</v>
+      </c>
+      <c r="C100">
+        <v>-2800.650265727026</v>
+      </c>
+      <c r="D100">
+        <v>779.0957342729732</v>
+      </c>
+      <c r="E100">
+        <v>2602.746</v>
+      </c>
+      <c r="F100">
+        <v>4231.346</v>
+      </c>
+      <c r="G100">
+        <v>651.6</v>
+      </c>
+      <c r="H100">
+        <v>2689.1</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>216.2</v>
+      </c>
+      <c r="K100">
+        <v>186.7</v>
+      </c>
+      <c r="L100">
+        <v>29.5</v>
+      </c>
+      <c r="M100">
+        <v>777.2982602</v>
+      </c>
+      <c r="N100">
+        <v>-747.7982602</v>
+      </c>
+      <c r="O100">
+        <v>-186.94956505</v>
+      </c>
+      <c r="P100">
+        <v>-560.8486951499999</v>
+      </c>
+      <c r="Q100">
+        <v>-374.1486951499999</v>
+      </c>
+      <c r="R100">
+        <v>48.99999999999996</v>
+      </c>
+      <c r="S100">
+        <v>2.363766790154205</v>
+      </c>
+      <c r="T100">
+        <v>46.12585679101912</v>
+      </c>
+      <c r="U100">
+        <v>0.1837</v>
+      </c>
+      <c r="V100">
+        <v>0.009487992418897737</v>
+      </c>
+      <c r="W100">
+        <v>0.1819570557926485</v>
+      </c>
+      <c r="X100" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y100">
+        <v>0.037951969675591</v>
+      </c>
+      <c r="Z100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>0.99</v>
+      </c>
+      <c r="B101">
+        <v>0.2273372504798797</v>
+      </c>
+      <c r="C101">
+        <v>-2850.058966767018</v>
+      </c>
+      <c r="D101">
+        <v>772.8640332329824</v>
+      </c>
+      <c r="E101">
+        <v>2645.923</v>
+      </c>
+      <c r="F101">
+        <v>4274.523</v>
+      </c>
+      <c r="G101">
+        <v>651.6</v>
+      </c>
+      <c r="H101">
+        <v>2689.1</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>216.2</v>
+      </c>
+      <c r="K101">
+        <v>186.7</v>
+      </c>
+      <c r="L101">
+        <v>29.5</v>
+      </c>
+      <c r="M101">
+        <v>785.2298751000001</v>
+      </c>
+      <c r="N101">
+        <v>-755.7298751000001</v>
+      </c>
+      <c r="O101">
+        <v>-188.932468775</v>
+      </c>
+      <c r="P101">
+        <v>-566.7974063250001</v>
+      </c>
+      <c r="Q101">
+        <v>-380.0974063250001</v>
+      </c>
+      <c r="R101">
+        <v>98.99999999999991</v>
+      </c>
+      <c r="S101">
+        <v>4.71823358030841</v>
+      </c>
+      <c r="T101">
+        <v>92.25171358203824</v>
+      </c>
+      <c r="U101">
+        <v>0.1837</v>
+      </c>
+      <c r="V101">
+        <v>0.009392154111636143</v>
+      </c>
+      <c r="W101">
+        <v>0.1819746612896924</v>
+      </c>
+      <c r="X101" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y101">
+        <v>0.03756861644654452</v>
+      </c>
+      <c r="Z101">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
